--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404194.399027919</v>
+        <v>-1404905.512661436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2150917.211406941</v>
+        <v>2150917.211406942</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.92770240711818</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.566744269083</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>68.41591422084531</v>
       </c>
       <c r="F11" t="n">
         <v>262.8755120706812</v>
       </c>
       <c r="G11" t="n">
-        <v>269.8962134915471</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>188.1932235828416</v>
       </c>
       <c r="I11" t="n">
-        <v>39.97987658855409</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.13678136468737</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>76.18203808719865</v>
@@ -1427,16 +1427,16 @@
         <v>107.0161961264909</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.1148701126597</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.111765590695</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.2687203413762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.95377420048521</v>
+        <v>21.04905225183933</v>
       </c>
       <c r="C12" t="n">
         <v>26.60723251754138</v>
@@ -1455,19 +1455,19 @@
         <v>1.69407216478595</v>
       </c>
       <c r="E12" t="n">
-        <v>147.2471388818309</v>
+        <v>11.61508229731422</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>163.5929573440222</v>
@@ -1509,13 +1509,13 @@
         <v>87.49037962979551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>105.5709953401404</v>
       </c>
       <c r="X12" t="n">
         <v>60.04327819861865</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.25280000872641</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>15.06131686580293</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05311200348962</v>
+        <v>2.053112003489619</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.2980585815354</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.5667442690831</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>56.43478719541767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>238.6996843454279</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>269.8962134915471</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.1932235828415</v>
+        <v>188.1932235828416</v>
       </c>
       <c r="I14" t="n">
-        <v>39.97987658855406</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.13678136468734</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>76.18203808719862</v>
+        <v>76.18203808719871</v>
       </c>
       <c r="U14" t="n">
         <v>107.0161961264909</v>
       </c>
       <c r="V14" t="n">
-        <v>184.1148701126597</v>
+        <v>184.1148701126598</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>161.6590061249815</v>
+        <v>242.2687203413763</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.95377420048519</v>
+        <v>20.95377420048527</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>26.60723251754143</v>
       </c>
       <c r="D15" t="n">
-        <v>1.694072164785922</v>
+        <v>1.694072164786007</v>
       </c>
       <c r="E15" t="n">
-        <v>89.17467626707743</v>
+        <v>11.61508229731427</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>67.96330068868269</v>
       </c>
       <c r="S15" t="n">
-        <v>19.17460593416258</v>
+        <v>19.17460593416266</v>
       </c>
       <c r="T15" t="n">
-        <v>52.79917568609952</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U15" t="n">
-        <v>80.21981034484469</v>
+        <v>80.21981034484477</v>
       </c>
       <c r="V15" t="n">
-        <v>87.49037962979548</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>105.5709953401404</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.66534008082417</v>
+        <v>35.66534008082425</v>
       </c>
       <c r="C16" t="n">
-        <v>22.9182015213427</v>
+        <v>22.91820152134278</v>
       </c>
       <c r="D16" t="n">
-        <v>4.58721510465972</v>
+        <v>4.587215104659805</v>
       </c>
       <c r="E16" t="n">
-        <v>2.556272763339535</v>
+        <v>2.556272763339621</v>
       </c>
       <c r="F16" t="n">
-        <v>1.740669999944856</v>
+        <v>1.740669999944942</v>
       </c>
       <c r="G16" t="n">
-        <v>23.22892217192739</v>
+        <v>23.22892217192747</v>
       </c>
       <c r="H16" t="n">
-        <v>15.0613168658029</v>
+        <v>15.06131686580298</v>
       </c>
       <c r="I16" t="n">
-        <v>2.053112003489591</v>
+        <v>2.053112003489676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.07741705268777</v>
+        <v>18.07741705268786</v>
       </c>
       <c r="S16" t="n">
-        <v>73.71615989036813</v>
+        <v>73.71615989036822</v>
       </c>
       <c r="T16" t="n">
-        <v>82.87876718427633</v>
+        <v>82.87876718427641</v>
       </c>
       <c r="U16" t="n">
-        <v>141.6207017803871</v>
+        <v>141.6207017803872</v>
       </c>
       <c r="V16" t="n">
-        <v>108.5179996570795</v>
+        <v>108.5179996570796</v>
       </c>
       <c r="W16" t="n">
-        <v>141.6742254775559</v>
+        <v>141.674225477556</v>
       </c>
       <c r="X16" t="n">
-        <v>81.72200852244961</v>
+        <v>81.7220085224497</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.33032245790858</v>
+        <v>74.33032245790866</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>105.1701852182479</v>
       </c>
       <c r="E17" t="n">
-        <v>131.683488218937</v>
+        <v>131.6834882189371</v>
       </c>
       <c r="F17" t="n">
         <v>155.8593159441903</v>
@@ -1910,7 +1910,7 @@
         <v>119.4270515948189</v>
       </c>
       <c r="Y17" t="n">
-        <v>135.2525242148846</v>
+        <v>135.2525242148853</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S18" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U18" t="n">
         <v>224.6381617547043</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>200.4384462182355</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>197.0478777269838</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.297118594136</v>
       </c>
       <c r="U19" t="n">
-        <v>34.60450565389621</v>
+        <v>99.74037337180836</v>
       </c>
       <c r="V19" t="n">
         <v>1.50180353058866</v>
@@ -2065,10 +2065,10 @@
         <v>34.65802935106504</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.29262637973889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.2818624550446</v>
+        <v>132.2818624550445</v>
       </c>
       <c r="C20" t="n">
-        <v>115.5505481425922</v>
+        <v>115.5505481425921</v>
       </c>
       <c r="D20" t="n">
         <v>105.1701852182479</v>
@@ -2090,13 +2090,13 @@
         <v>131.683488218937</v>
       </c>
       <c r="F20" t="n">
-        <v>155.8593159441904</v>
+        <v>155.8593159441903</v>
       </c>
       <c r="G20" t="n">
         <v>162.8800173650562</v>
       </c>
       <c r="H20" t="n">
-        <v>81.17702745635074</v>
+        <v>81.17702745635071</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>77.09867398616888</v>
+        <v>77.09867398616885</v>
       </c>
       <c r="W20" t="n">
-        <v>99.09556946420412</v>
+        <v>99.09556946420409</v>
       </c>
       <c r="X20" t="n">
         <v>119.4270515948189</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>48.85164358081177</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I21" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U21" t="n">
         <v>224.6381617547043</v>
       </c>
       <c r="V21" t="n">
-        <v>29.10476030205313</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.47009375416589</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>40.99843877569766</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.60450565389624</v>
+        <v>34.60450565389621</v>
       </c>
       <c r="V22" t="n">
-        <v>234.4646960884708</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>34.65802935106507</v>
+        <v>34.65802935106504</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.2818624550446</v>
+        <v>132.2818624550445</v>
       </c>
       <c r="C23" t="n">
-        <v>115.5505481425922</v>
+        <v>115.5505481425921</v>
       </c>
       <c r="D23" t="n">
         <v>105.1701852182479</v>
@@ -2327,13 +2327,13 @@
         <v>131.683488218937</v>
       </c>
       <c r="F23" t="n">
-        <v>155.8593159441904</v>
+        <v>155.8593159441903</v>
       </c>
       <c r="G23" t="n">
         <v>162.8800173650562</v>
       </c>
       <c r="H23" t="n">
-        <v>81.17702745635074</v>
+        <v>81.17702745635071</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>77.09867398616888</v>
+        <v>77.09867398616885</v>
       </c>
       <c r="W23" t="n">
-        <v>99.09556946420412</v>
+        <v>99.09556946420409</v>
       </c>
       <c r="X23" t="n">
         <v>119.4270515948189</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>98.09743325730392</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.50255915528406</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.46712409533474</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.47009375416589</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>162.4957684625474</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.60450565389624</v>
+        <v>34.60450565389621</v>
       </c>
       <c r="V25" t="n">
-        <v>1.501803530588688</v>
+        <v>131.4390213800894</v>
       </c>
       <c r="W25" t="n">
-        <v>34.65802935106507</v>
+        <v>34.65802935106504</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>241.7535457424605</v>
       </c>
       <c r="F26" t="n">
-        <v>265.9293734677139</v>
+        <v>265.929373467714</v>
       </c>
       <c r="G26" t="n">
         <v>272.9500748885798</v>
       </c>
       <c r="H26" t="n">
-        <v>191.2470849798742</v>
+        <v>191.2470849798743</v>
       </c>
       <c r="I26" t="n">
-        <v>43.03373798558675</v>
+        <v>43.03373798558679</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.19064276172005</v>
+        <v>52.19064276172007</v>
       </c>
       <c r="T26" t="n">
-        <v>79.23589948423133</v>
+        <v>79.23589948423135</v>
       </c>
       <c r="U26" t="n">
         <v>110.0700575235236</v>
@@ -2615,7 +2615,7 @@
         <v>187.1687315096924</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1656269877276</v>
+        <v>209.1656269877277</v>
       </c>
       <c r="X26" t="n">
         <v>229.4971091183425</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>29.66109391457408</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S27" t="n">
-        <v>22.22846733119528</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T27" t="n">
-        <v>55.85303708313223</v>
+        <v>55.85303708313226</v>
       </c>
       <c r="U27" t="n">
-        <v>186.1029770149988</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2697,7 +2697,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>89.17684935474776</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.71920147785687</v>
+        <v>38.7192014778569</v>
       </c>
       <c r="C28" t="n">
-        <v>25.9720629183754</v>
+        <v>25.97206291837543</v>
       </c>
       <c r="D28" t="n">
-        <v>7.641076501692424</v>
+        <v>7.641076501692453</v>
       </c>
       <c r="E28" t="n">
-        <v>5.61013416037224</v>
+        <v>5.610134160372269</v>
       </c>
       <c r="F28" t="n">
-        <v>4.794531396977561</v>
+        <v>4.79453139697759</v>
       </c>
       <c r="G28" t="n">
-        <v>26.28278356896009</v>
+        <v>26.28278356896012</v>
       </c>
       <c r="H28" t="n">
-        <v>18.11517826283561</v>
+        <v>18.11517826283563</v>
       </c>
       <c r="I28" t="n">
-        <v>5.106973400522296</v>
+        <v>5.106973400522324</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.13127844972048</v>
+        <v>21.1312784497205</v>
       </c>
       <c r="S28" t="n">
-        <v>76.77002128740084</v>
+        <v>76.77002128740087</v>
       </c>
       <c r="T28" t="n">
-        <v>85.93262858130903</v>
+        <v>85.93262858130906</v>
       </c>
       <c r="U28" t="n">
         <v>144.6745631774198</v>
@@ -2776,10 +2776,10 @@
         <v>144.7280868745886</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77586991948232</v>
+        <v>84.77586991948235</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.38418385494128</v>
+        <v>77.38418385494131</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>241.7535457424605</v>
       </c>
       <c r="F29" t="n">
-        <v>265.9293734677139</v>
+        <v>265.929373467714</v>
       </c>
       <c r="G29" t="n">
         <v>272.9500748885798</v>
@@ -2810,7 +2810,7 @@
         <v>191.2470849798743</v>
       </c>
       <c r="I29" t="n">
-        <v>43.03373798558675</v>
+        <v>43.03373798558678</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.19064276172006</v>
+        <v>52.19064276172007</v>
       </c>
       <c r="T29" t="n">
-        <v>79.23589948423134</v>
+        <v>79.23589948423135</v>
       </c>
       <c r="U29" t="n">
         <v>110.0700575235236</v>
@@ -2852,7 +2852,7 @@
         <v>187.1687315096924</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1656269877276</v>
+        <v>209.1656269877277</v>
       </c>
       <c r="X29" t="n">
         <v>229.4971091183425</v>
@@ -2871,25 +2871,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>29.66109391457408</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>14.66894369434692</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>2.141742070722387</v>
       </c>
       <c r="G30" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H30" t="n">
-        <v>102.8293052731214</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.07970975909629</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S30" t="n">
-        <v>22.22846733119528</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T30" t="n">
-        <v>55.85303708313223</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U30" t="n">
-        <v>83.27367174187739</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.71920147785687</v>
+        <v>38.7192014778569</v>
       </c>
       <c r="C31" t="n">
-        <v>25.9720629183754</v>
+        <v>25.97206291837543</v>
       </c>
       <c r="D31" t="n">
-        <v>7.641076501692424</v>
+        <v>7.641076501692453</v>
       </c>
       <c r="E31" t="n">
-        <v>5.61013416037224</v>
+        <v>5.610134160372269</v>
       </c>
       <c r="F31" t="n">
-        <v>4.794531396977561</v>
+        <v>4.79453139697759</v>
       </c>
       <c r="G31" t="n">
-        <v>26.28278356896009</v>
+        <v>26.28278356896012</v>
       </c>
       <c r="H31" t="n">
-        <v>18.11517826283561</v>
+        <v>18.11517826283563</v>
       </c>
       <c r="I31" t="n">
-        <v>5.106973400522296</v>
+        <v>5.106973400522324</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.13127844972048</v>
+        <v>21.1312784497205</v>
       </c>
       <c r="S31" t="n">
-        <v>76.77002128740084</v>
+        <v>76.77002128740087</v>
       </c>
       <c r="T31" t="n">
-        <v>85.93262858130903</v>
+        <v>85.93262858130906</v>
       </c>
       <c r="U31" t="n">
         <v>144.6745631774198</v>
@@ -3013,10 +3013,10 @@
         <v>144.7280868745886</v>
       </c>
       <c r="X31" t="n">
-        <v>84.77586991948232</v>
+        <v>84.77586991948235</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.38418385494128</v>
+        <v>77.38418385494131</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>272.9500748885798</v>
       </c>
       <c r="H32" t="n">
-        <v>191.2470849798743</v>
+        <v>191.2470849798742</v>
       </c>
       <c r="I32" t="n">
-        <v>43.03373798558675</v>
+        <v>43.03373798558676</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.19064276172006</v>
+        <v>52.19064276172004</v>
       </c>
       <c r="T32" t="n">
-        <v>79.23589948423134</v>
+        <v>79.23589948423133</v>
       </c>
       <c r="U32" t="n">
         <v>110.0700575235236</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>50.08734535661421</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3117,10 +3117,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>2.141742070722358</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S33" t="n">
         <v>163.5929573440222</v>
@@ -3162,7 +3162,7 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U33" t="n">
-        <v>180.4726644572613</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3205,7 +3205,7 @@
         <v>18.11517826283561</v>
       </c>
       <c r="I34" t="n">
-        <v>5.106973400522296</v>
+        <v>5.106973400522295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>145.0596178207276</v>
       </c>
       <c r="D35" t="n">
-        <v>134.6792548963834</v>
+        <v>134.6792548963833</v>
       </c>
       <c r="E35" t="n">
         <v>161.1925578970724</v>
@@ -3278,10 +3278,10 @@
         <v>185.3683856223258</v>
       </c>
       <c r="G35" t="n">
-        <v>192.3890870431917</v>
+        <v>192.3890870431916</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6860971344862</v>
+        <v>110.6860971344861</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>29.50906967813549</v>
+        <v>29.50906967813543</v>
       </c>
       <c r="V35" t="n">
         <v>106.6077436643043</v>
       </c>
       <c r="W35" t="n">
-        <v>128.6046391423396</v>
+        <v>128.6046391423395</v>
       </c>
       <c r="X35" t="n">
-        <v>148.9361212729544</v>
+        <v>148.9361212729543</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.7615938930208</v>
+        <v>164.7615938930207</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U36" t="n">
-        <v>2.712683896489323</v>
+        <v>2.712683896489266</v>
       </c>
       <c r="V36" t="n">
-        <v>226.7004896214532</v>
+        <v>165.4296709721954</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>59.47009375416589</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>134.8491607134609</v>
       </c>
       <c r="S37" t="n">
-        <v>194.3192544676264</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.371640735920963</v>
+        <v>5.371640735920906</v>
       </c>
       <c r="U37" t="n">
-        <v>64.1135753320317</v>
+        <v>64.11357533203164</v>
       </c>
       <c r="V37" t="n">
-        <v>31.01087320872415</v>
+        <v>31.01087320872409</v>
       </c>
       <c r="W37" t="n">
-        <v>64.16709902920053</v>
+        <v>64.16709902920047</v>
       </c>
       <c r="X37" t="n">
-        <v>4.214882074094248</v>
+        <v>4.214882074094191</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>145.0596178207276</v>
       </c>
       <c r="D38" t="n">
-        <v>134.6792548963834</v>
+        <v>134.6792548963833</v>
       </c>
       <c r="E38" t="n">
         <v>161.1925578970724</v>
@@ -3515,10 +3515,10 @@
         <v>185.3683856223258</v>
       </c>
       <c r="G38" t="n">
-        <v>192.3890870431917</v>
+        <v>192.3890870431916</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6860971344862</v>
+        <v>110.6860971344861</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>29.50906967813549</v>
+        <v>29.50906967813543</v>
       </c>
       <c r="V38" t="n">
         <v>106.6077436643043</v>
       </c>
       <c r="W38" t="n">
-        <v>128.6046391423396</v>
+        <v>128.6046391423395</v>
       </c>
       <c r="X38" t="n">
-        <v>148.9361212729544</v>
+        <v>148.9361212729543</v>
       </c>
       <c r="Y38" t="n">
-        <v>164.7615938930208</v>
+        <v>164.7615938930207</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>125.7030774367049</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I39" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S39" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.2175270959592</v>
       </c>
       <c r="U39" t="n">
-        <v>2.712683896489323</v>
+        <v>2.712683896489266</v>
       </c>
       <c r="V39" t="n">
-        <v>138.9753205420411</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>28.06386889178503</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.47009375416589</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>140.2208014493815</v>
+        <v>5.371640735920906</v>
       </c>
       <c r="U40" t="n">
-        <v>64.1135753320317</v>
+        <v>64.11357533203164</v>
       </c>
       <c r="V40" t="n">
-        <v>31.01087320872415</v>
+        <v>225.3301276763508</v>
       </c>
       <c r="W40" t="n">
-        <v>64.16709902920053</v>
+        <v>64.16709902920047</v>
       </c>
       <c r="X40" t="n">
-        <v>4.214882074094248</v>
+        <v>4.214882074094191</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U42" t="n">
-        <v>169.4389365193425</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>101.3189595726493</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.19804419929523</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.696729097077722</v>
+        <v>6.696729097077721</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43866369318846</v>
+        <v>90.63670789248374</v>
       </c>
       <c r="V43" t="n">
         <v>32.33596156988091</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.83415803929222</v>
+        <v>30.83415803929221</v>
       </c>
       <c r="V44" t="n">
         <v>107.9328320254611</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -4062,19 +4062,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.75059295562188</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T45" t="n">
         <v>197.2175270959592</v>
       </c>
       <c r="U45" t="n">
-        <v>4.037772257646053</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V45" t="n">
         <v>11.30834154259685</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>182.1964896689984</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>194.3905417589204</v>
+        <v>6.696729097077693</v>
       </c>
       <c r="U46" t="n">
         <v>65.43866369318843</v>
@@ -4198,7 +4198,7 @@
         <v>65.49218739035726</v>
       </c>
       <c r="X46" t="n">
-        <v>5.539970435250979</v>
+        <v>193.2337830970938</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>795.7487677800057</v>
+        <v>776.664493446498</v>
       </c>
       <c r="C11" t="n">
-        <v>795.7487677800057</v>
+        <v>551.849600245404</v>
       </c>
       <c r="D11" t="n">
-        <v>795.7487677800057</v>
+        <v>551.849600245404</v>
       </c>
       <c r="E11" t="n">
-        <v>795.7487677800057</v>
+        <v>482.7426161839438</v>
       </c>
       <c r="F11" t="n">
-        <v>530.2179475065902</v>
+        <v>217.2117959105284</v>
       </c>
       <c r="G11" t="n">
-        <v>257.5955096363406</v>
+        <v>217.2117959105284</v>
       </c>
       <c r="H11" t="n">
-        <v>67.50134440114709</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I11" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J11" t="n">
-        <v>71.8553002808207</v>
+        <v>71.85530028082073</v>
       </c>
       <c r="K11" t="n">
         <v>261.1820627065688</v>
       </c>
       <c r="L11" t="n">
-        <v>514.6189045933656</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="M11" t="n">
-        <v>849.0022737115474</v>
+        <v>882.4111001545635</v>
       </c>
       <c r="N11" t="n">
-        <v>849.0022737115474</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="O11" t="n">
         <v>1109.07937209369</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.110365298515</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="Q11" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R11" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S11" t="n">
-        <v>1306.248421277161</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T11" t="n">
-        <v>1229.296867653728</v>
+        <v>1278.929980143312</v>
       </c>
       <c r="U11" t="n">
-        <v>1121.199699849192</v>
+        <v>1170.832812338776</v>
       </c>
       <c r="V11" t="n">
-        <v>1121.199699849192</v>
+        <v>984.8581960633616</v>
       </c>
       <c r="W11" t="n">
-        <v>1121.199699849192</v>
+        <v>776.664493446498</v>
       </c>
       <c r="X11" t="n">
-        <v>1121.199699849192</v>
+        <v>776.664493446498</v>
       </c>
       <c r="Y11" t="n">
-        <v>876.4838207164885</v>
+        <v>776.664493446498</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>204.4392908411513</v>
+        <v>281.8678943387995</v>
       </c>
       <c r="C12" t="n">
-        <v>177.5632983991903</v>
+        <v>254.9919018968385</v>
       </c>
       <c r="D12" t="n">
-        <v>175.8521143943561</v>
+        <v>253.2807178920042</v>
       </c>
       <c r="E12" t="n">
-        <v>27.11763067533489</v>
+        <v>241.5483115310807</v>
       </c>
       <c r="F12" t="n">
-        <v>27.11763067533489</v>
+        <v>241.5483115310807</v>
       </c>
       <c r="G12" t="n">
-        <v>27.11763067533489</v>
+        <v>104.443081778465</v>
       </c>
       <c r="H12" t="n">
-        <v>27.11763067533489</v>
+        <v>104.443081778465</v>
       </c>
       <c r="I12" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J12" t="n">
-        <v>27.11763067533489</v>
+        <v>61.54512539052445</v>
       </c>
       <c r="K12" t="n">
-        <v>27.11763067533489</v>
+        <v>246.9928106217453</v>
       </c>
       <c r="L12" t="n">
-        <v>337.3245360977191</v>
+        <v>313.8050548945678</v>
       </c>
       <c r="M12" t="n">
-        <v>337.3245360977191</v>
+        <v>649.3857345018371</v>
       </c>
       <c r="N12" t="n">
-        <v>649.3857345018367</v>
+        <v>649.3857345018371</v>
       </c>
       <c r="O12" t="n">
-        <v>984.9664141091059</v>
+        <v>984.9664141091064</v>
       </c>
       <c r="P12" t="n">
         <v>1238.177536526419</v>
       </c>
       <c r="Q12" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R12" t="n">
-        <v>1278.356689813183</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S12" t="n">
-        <v>1113.111278354575</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="T12" t="n">
-        <v>913.9016550253233</v>
+        <v>991.4264989788848</v>
       </c>
       <c r="U12" t="n">
-        <v>686.9944209296623</v>
+        <v>764.5192648832237</v>
       </c>
       <c r="V12" t="n">
-        <v>598.620300091485</v>
+        <v>676.1451440450464</v>
       </c>
       <c r="W12" t="n">
-        <v>346.1058084248183</v>
+        <v>569.5077750146015</v>
       </c>
       <c r="X12" t="n">
-        <v>285.4560324666176</v>
+        <v>508.8579990564008</v>
       </c>
       <c r="Y12" t="n">
-        <v>225.6047193264899</v>
+        <v>303.1295632800513</v>
       </c>
     </row>
     <row r="13">
@@ -5191,7 +5191,7 @@
         <v>44.40493256350918</v>
       </c>
       <c r="H13" t="n">
-        <v>29.19148118391026</v>
+        <v>29.19148118391027</v>
       </c>
       <c r="I13" t="n">
         <v>27.11763067533489</v>
@@ -5203,19 +5203,19 @@
         <v>40.36207641856529</v>
       </c>
       <c r="L13" t="n">
-        <v>256.0881900990253</v>
+        <v>256.0881900990254</v>
       </c>
       <c r="M13" t="n">
-        <v>486.3619838716222</v>
+        <v>486.3619838716223</v>
       </c>
       <c r="N13" t="n">
-        <v>576.7270816642056</v>
+        <v>678.549998759654</v>
       </c>
       <c r="O13" t="n">
-        <v>787.831446830897</v>
+        <v>746.6801960305845</v>
       </c>
       <c r="P13" t="n">
-        <v>822.9061190571614</v>
+        <v>781.7548682568489</v>
       </c>
       <c r="Q13" t="n">
         <v>865.8536433359857</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>530.2179475065902</v>
+        <v>740.1423169306581</v>
       </c>
       <c r="C14" t="n">
-        <v>530.2179475065902</v>
+        <v>515.3274237295641</v>
       </c>
       <c r="D14" t="n">
-        <v>530.2179475065902</v>
+        <v>458.3225881786375</v>
       </c>
       <c r="E14" t="n">
-        <v>530.2179475065902</v>
+        <v>217.2117959105285</v>
       </c>
       <c r="F14" t="n">
-        <v>530.2179475065902</v>
+        <v>217.2117959105285</v>
       </c>
       <c r="G14" t="n">
-        <v>257.5955096363406</v>
+        <v>217.2117959105285</v>
       </c>
       <c r="H14" t="n">
-        <v>67.50134440114708</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I14" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J14" t="n">
-        <v>71.8553002808207</v>
+        <v>71.85530028082073</v>
       </c>
       <c r="K14" t="n">
-        <v>71.8553002808207</v>
+        <v>261.1820627065688</v>
       </c>
       <c r="L14" t="n">
-        <v>190.3420379680721</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="M14" t="n">
-        <v>524.7254070862539</v>
+        <v>586.4965755544833</v>
       </c>
       <c r="N14" t="n">
-        <v>849.0022737115474</v>
+        <v>910.7734421797769</v>
       </c>
       <c r="O14" t="n">
-        <v>1109.07937209369</v>
+        <v>1170.850540561919</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.110365298515</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q14" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R14" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S14" t="n">
-        <v>1306.248421277161</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T14" t="n">
-        <v>1229.296867653728</v>
+        <v>1278.929980143312</v>
       </c>
       <c r="U14" t="n">
-        <v>1121.199699849193</v>
+        <v>1170.832812338776</v>
       </c>
       <c r="V14" t="n">
-        <v>935.2250835737788</v>
+        <v>984.8581960633614</v>
       </c>
       <c r="W14" t="n">
-        <v>935.2250835737788</v>
+        <v>984.8581960633614</v>
       </c>
       <c r="X14" t="n">
-        <v>935.2250835737788</v>
+        <v>984.8581960633614</v>
       </c>
       <c r="Y14" t="n">
-        <v>771.9331581950096</v>
+        <v>740.1423169306581</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>573.7183800671563</v>
+        <v>67.4372134830538</v>
       </c>
       <c r="C15" t="n">
-        <v>400.9652649889735</v>
+        <v>40.56122104109275</v>
       </c>
       <c r="D15" t="n">
-        <v>399.2540809841393</v>
+        <v>38.8500370362584</v>
       </c>
       <c r="E15" t="n">
-        <v>309.1786504113338</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F15" t="n">
-        <v>164.2228604279506</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G15" t="n">
         <v>27.11763067533489</v>
@@ -5355,52 +5355,52 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J15" t="n">
-        <v>61.54512539052445</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K15" t="n">
-        <v>246.9928106217453</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="L15" t="n">
-        <v>557.1997160441296</v>
+        <v>522.7722213289401</v>
       </c>
       <c r="M15" t="n">
-        <v>892.7803956513987</v>
+        <v>858.3529009362094</v>
       </c>
       <c r="N15" t="n">
-        <v>1020.300854159475</v>
+        <v>858.3529009362094</v>
       </c>
       <c r="O15" t="n">
-        <v>1355.881533766744</v>
+        <v>984.9664141091064</v>
       </c>
       <c r="P15" t="n">
-        <v>1355.881533766744</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q15" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R15" t="n">
-        <v>1355.881533766744</v>
+        <v>1287.231735091308</v>
       </c>
       <c r="S15" t="n">
-        <v>1336.513244944358</v>
+        <v>1267.863446268921</v>
       </c>
       <c r="T15" t="n">
-        <v>1283.180744251328</v>
+        <v>1068.653822939669</v>
       </c>
       <c r="U15" t="n">
-        <v>1202.150632791889</v>
+        <v>987.6237114802302</v>
       </c>
       <c r="V15" t="n">
-        <v>1113.776511953712</v>
+        <v>753.3724680058311</v>
       </c>
       <c r="W15" t="n">
-        <v>1007.139142923267</v>
+        <v>500.8579763391645</v>
       </c>
       <c r="X15" t="n">
-        <v>800.6122443288444</v>
+        <v>294.3310777447419</v>
       </c>
       <c r="Y15" t="n">
-        <v>594.8838085524949</v>
+        <v>88.60264196839245</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.99208565564467</v>
+        <v>99.99208565564528</v>
       </c>
       <c r="C16" t="n">
-        <v>76.84238714923791</v>
+        <v>76.84238714923843</v>
       </c>
       <c r="D16" t="n">
-        <v>72.20883653847052</v>
+        <v>72.20883653847095</v>
       </c>
       <c r="E16" t="n">
-        <v>69.62674283812756</v>
+        <v>69.6267428381279</v>
       </c>
       <c r="F16" t="n">
-        <v>67.86849031293073</v>
+        <v>67.86849031293099</v>
       </c>
       <c r="G16" t="n">
-        <v>44.40493256350912</v>
+        <v>44.4049325635093</v>
       </c>
       <c r="H16" t="n">
-        <v>29.19148118391023</v>
+        <v>29.19148118391032</v>
       </c>
       <c r="I16" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J16" t="n">
-        <v>99.10172026762896</v>
+        <v>99.10172026762889</v>
       </c>
       <c r="K16" t="n">
-        <v>112.3461660108594</v>
+        <v>142.1849935140148</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0981117955584</v>
+        <v>357.9111071944748</v>
       </c>
       <c r="M16" t="n">
-        <v>415.3719055681553</v>
+        <v>445.2107330713106</v>
       </c>
       <c r="N16" t="n">
-        <v>648.7111712564997</v>
+        <v>535.575830863894</v>
       </c>
       <c r="O16" t="n">
-        <v>716.8413685274301</v>
+        <v>603.7060281348245</v>
       </c>
       <c r="P16" t="n">
-        <v>781.7548682568485</v>
+        <v>781.7548682568498</v>
       </c>
       <c r="Q16" t="n">
-        <v>865.8536433359852</v>
+        <v>865.8536433359866</v>
       </c>
       <c r="R16" t="n">
-        <v>847.593626111048</v>
+        <v>847.5936261110494</v>
       </c>
       <c r="S16" t="n">
-        <v>773.1328585450196</v>
+        <v>773.1328585450209</v>
       </c>
       <c r="T16" t="n">
-        <v>689.4169320962557</v>
+        <v>689.4169320962568</v>
       </c>
       <c r="U16" t="n">
-        <v>546.3657181766728</v>
+        <v>546.3657181766738</v>
       </c>
       <c r="V16" t="n">
-        <v>436.7515771089157</v>
+        <v>436.7515771089166</v>
       </c>
       <c r="W16" t="n">
-        <v>293.6462988487582</v>
+        <v>293.646298848759</v>
       </c>
       <c r="X16" t="n">
-        <v>211.0988154927485</v>
+        <v>211.0988154927493</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.0176816968812</v>
+        <v>136.0176816968819</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>787.0374108221775</v>
+        <v>787.0374108221777</v>
       </c>
       <c r="C17" t="n">
-        <v>670.3196854256198</v>
+        <v>670.31968542562</v>
       </c>
       <c r="D17" t="n">
-        <v>564.0871751041573</v>
+        <v>564.0871751041574</v>
       </c>
       <c r="E17" t="n">
         <v>431.0735506405846</v>
@@ -5513,49 +5513,49 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J17" t="n">
-        <v>27.11763067533489</v>
+        <v>71.85530028082073</v>
       </c>
       <c r="K17" t="n">
-        <v>216.4443931010829</v>
+        <v>261.1820627065688</v>
       </c>
       <c r="L17" t="n">
-        <v>216.4443931010829</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="M17" t="n">
-        <v>550.8277622192647</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="N17" t="n">
-        <v>849.0022737115474</v>
+        <v>849.0022737115479</v>
       </c>
       <c r="O17" t="n">
         <v>1109.07937209369</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.110365298515</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="Q17" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R17" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S17" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T17" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="U17" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="V17" t="n">
         <v>1278.004085295867</v>
       </c>
       <c r="W17" t="n">
-        <v>1177.907550483539</v>
+        <v>1177.90755048354</v>
       </c>
       <c r="X17" t="n">
-        <v>1057.274165034227</v>
+        <v>1057.274165034228</v>
       </c>
       <c r="Y17" t="n">
         <v>920.6554537060609</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="C18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="D18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="E18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I18" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J18" t="n">
-        <v>27.11763067533489</v>
+        <v>61.54512539052445</v>
       </c>
       <c r="K18" t="n">
-        <v>212.5653159065558</v>
+        <v>246.9928106217453</v>
       </c>
       <c r="L18" t="n">
-        <v>522.77222132894</v>
+        <v>557.1997160441297</v>
       </c>
       <c r="M18" t="n">
-        <v>684.7201745522059</v>
+        <v>557.1997160441297</v>
       </c>
       <c r="N18" t="n">
-        <v>1020.300854159475</v>
+        <v>892.780395651399</v>
       </c>
       <c r="O18" t="n">
-        <v>1355.881533766744</v>
+        <v>1228.361075258668</v>
       </c>
       <c r="P18" t="n">
-        <v>1355.881533766744</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q18" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R18" t="n">
-        <v>1278.356689813183</v>
+        <v>1278.356689813184</v>
       </c>
       <c r="S18" t="n">
-        <v>1113.111278354575</v>
+        <v>1278.356689813184</v>
       </c>
       <c r="T18" t="n">
-        <v>1113.111278354575</v>
+        <v>1079.147066483932</v>
       </c>
       <c r="U18" t="n">
-        <v>886.2040442589141</v>
+        <v>852.2398323882712</v>
       </c>
       <c r="V18" t="n">
-        <v>886.2040442589141</v>
+        <v>852.2398323882712</v>
       </c>
       <c r="W18" t="n">
-        <v>683.7409672707975</v>
+        <v>599.7253407216045</v>
       </c>
       <c r="X18" t="n">
-        <v>477.2140686763749</v>
+        <v>393.198442127182</v>
       </c>
       <c r="Y18" t="n">
-        <v>271.4856329000255</v>
+        <v>194.1601817968954</v>
       </c>
     </row>
     <row r="19">
@@ -5683,7 +5683,7 @@
         <v>200.4136480801002</v>
       </c>
       <c r="N19" t="n">
-        <v>290.7787458726835</v>
+        <v>290.7787458726836</v>
       </c>
       <c r="O19" t="n">
         <v>358.908943143614</v>
@@ -5701,19 +5701,19 @@
         <v>393.9836153698784</v>
       </c>
       <c r="T19" t="n">
-        <v>393.9836153698784</v>
+        <v>164.3905662848925</v>
       </c>
       <c r="U19" t="n">
-        <v>359.0295692548317</v>
+        <v>63.64271439417702</v>
       </c>
       <c r="V19" t="n">
-        <v>357.5125959916109</v>
+        <v>62.12574113095615</v>
       </c>
       <c r="W19" t="n">
-        <v>322.5044855359896</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="X19" t="n">
-        <v>94.07987954375801</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="Y19" t="n">
         <v>27.11763067533489</v>
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.0374108221771</v>
+        <v>787.0374108221779</v>
       </c>
       <c r="C20" t="n">
-        <v>670.3196854256194</v>
+        <v>670.3196854256202</v>
       </c>
       <c r="D20" t="n">
-        <v>564.0871751041568</v>
+        <v>564.0871751041577</v>
       </c>
       <c r="E20" t="n">
-        <v>431.0735506405841</v>
+        <v>431.0735506405849</v>
       </c>
       <c r="F20" t="n">
-        <v>273.6398981717049</v>
+        <v>273.6398981717059</v>
       </c>
       <c r="G20" t="n">
         <v>109.1146281059922</v>
       </c>
       <c r="H20" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I20" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="J20" t="n">
-        <v>27.11763067533489</v>
+        <v>71.85530028082073</v>
       </c>
       <c r="K20" t="n">
-        <v>27.11763067533489</v>
+        <v>261.1820627065688</v>
       </c>
       <c r="L20" t="n">
-        <v>190.3420379680724</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="M20" t="n">
-        <v>524.7254070862541</v>
+        <v>882.4111001545635</v>
       </c>
       <c r="N20" t="n">
-        <v>849.0022737115477</v>
+        <v>882.4111001545635</v>
       </c>
       <c r="O20" t="n">
-        <v>1109.07937209369</v>
+        <v>1109.079372093691</v>
       </c>
       <c r="P20" t="n">
-        <v>1294.110365298515</v>
+        <v>1294.110365298516</v>
       </c>
       <c r="Q20" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R20" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S20" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T20" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="U20" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="V20" t="n">
-        <v>1278.004085295867</v>
+        <v>1278.004085295868</v>
       </c>
       <c r="W20" t="n">
         <v>1177.90755048354</v>
@@ -5795,7 +5795,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y20" t="n">
-        <v>920.6554537060605</v>
+        <v>920.6554537060613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>434.8057258537931</v>
+        <v>185.2213793908915</v>
       </c>
       <c r="C21" t="n">
-        <v>262.0526107756103</v>
+        <v>185.2213793908915</v>
       </c>
       <c r="D21" t="n">
-        <v>262.0526107756103</v>
+        <v>185.2213793908915</v>
       </c>
       <c r="E21" t="n">
-        <v>104.443081778465</v>
+        <v>185.2213793908915</v>
       </c>
       <c r="F21" t="n">
-        <v>104.443081778465</v>
+        <v>185.2213793908915</v>
       </c>
       <c r="G21" t="n">
-        <v>104.443081778465</v>
+        <v>135.876284864819</v>
       </c>
       <c r="H21" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I21" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="J21" t="n">
-        <v>61.54512539052445</v>
+        <v>61.54512539052446</v>
       </c>
       <c r="K21" t="n">
-        <v>61.54512539052445</v>
+        <v>246.9928106217453</v>
       </c>
       <c r="L21" t="n">
-        <v>61.54512539052445</v>
+        <v>557.1997160441297</v>
       </c>
       <c r="M21" t="n">
-        <v>397.1258049977937</v>
+        <v>557.1997160441297</v>
       </c>
       <c r="N21" t="n">
-        <v>732.706484605063</v>
+        <v>649.3857345018373</v>
       </c>
       <c r="O21" t="n">
-        <v>1068.287164212332</v>
+        <v>984.9664141091066</v>
       </c>
       <c r="P21" t="n">
         <v>1238.177536526419</v>
       </c>
       <c r="Q21" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R21" t="n">
-        <v>1355.881533766744</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S21" t="n">
-        <v>1355.881533766744</v>
+        <v>1190.636122308137</v>
       </c>
       <c r="T21" t="n">
-        <v>1355.881533766744</v>
+        <v>991.426498978885</v>
       </c>
       <c r="U21" t="n">
-        <v>1128.974299671084</v>
+        <v>764.519264883224</v>
       </c>
       <c r="V21" t="n">
-        <v>1099.575551891232</v>
+        <v>764.519264883224</v>
       </c>
       <c r="W21" t="n">
-        <v>847.0610602245652</v>
+        <v>764.519264883224</v>
       </c>
       <c r="X21" t="n">
-        <v>640.5341616301426</v>
+        <v>557.9923662888015</v>
       </c>
       <c r="Y21" t="n">
-        <v>434.8057258537931</v>
+        <v>352.2639305124519</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="C22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="D22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="E22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="F22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="G22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="H22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="J22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="K22" t="n">
-        <v>40.36207641856529</v>
+        <v>40.36207641856531</v>
       </c>
       <c r="L22" t="n">
-        <v>113.1140222032643</v>
+        <v>113.1140222032644</v>
       </c>
       <c r="M22" t="n">
         <v>200.4136480801002</v>
       </c>
       <c r="N22" t="n">
-        <v>290.7787458726835</v>
+        <v>290.7787458726836</v>
       </c>
       <c r="O22" t="n">
         <v>358.908943143614</v>
@@ -5929,31 +5929,31 @@
         <v>393.9836153698784</v>
       </c>
       <c r="Q22" t="n">
-        <v>333.9128135979936</v>
+        <v>393.9836153698784</v>
       </c>
       <c r="R22" t="n">
-        <v>333.9128135979936</v>
+        <v>393.9836153698784</v>
       </c>
       <c r="S22" t="n">
-        <v>333.9128135979936</v>
+        <v>352.5710509499818</v>
       </c>
       <c r="T22" t="n">
-        <v>333.9128135979936</v>
+        <v>352.5710509499818</v>
       </c>
       <c r="U22" t="n">
-        <v>298.9587674829469</v>
+        <v>317.6170048349351</v>
       </c>
       <c r="V22" t="n">
-        <v>62.12574113095617</v>
+        <v>62.12574113095616</v>
       </c>
       <c r="W22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="X22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.11763067533489</v>
+        <v>27.1176306753349</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>787.0374108221787</v>
+        <v>787.0374108221773</v>
       </c>
       <c r="C23" t="n">
-        <v>670.3196854256209</v>
+        <v>670.3196854256196</v>
       </c>
       <c r="D23" t="n">
-        <v>564.0871751041584</v>
+        <v>564.087175104157</v>
       </c>
       <c r="E23" t="n">
-        <v>431.0735506405854</v>
+        <v>431.0735506405844</v>
       </c>
       <c r="F23" t="n">
-        <v>273.6398981717062</v>
+        <v>273.6398981717052</v>
       </c>
       <c r="G23" t="n">
         <v>109.1146281059922</v>
       </c>
       <c r="H23" t="n">
-        <v>27.11763067533491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I23" t="n">
-        <v>27.11763067533491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J23" t="n">
-        <v>27.11763067533491</v>
+        <v>71.85530028082073</v>
       </c>
       <c r="K23" t="n">
-        <v>27.11763067533491</v>
+        <v>261.1820627065688</v>
       </c>
       <c r="L23" t="n">
-        <v>190.3420379680735</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="M23" t="n">
-        <v>524.7254070862552</v>
+        <v>548.0277310363817</v>
       </c>
       <c r="N23" t="n">
-        <v>849.0022737115488</v>
+        <v>872.3045976616754</v>
       </c>
       <c r="O23" t="n">
-        <v>1109.079372093691</v>
+        <v>1132.381696043818</v>
       </c>
       <c r="P23" t="n">
-        <v>1294.110365298517</v>
+        <v>1317.412689248643</v>
       </c>
       <c r="Q23" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R23" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S23" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T23" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="U23" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="V23" t="n">
-        <v>1278.004085295868</v>
+        <v>1278.004085295867</v>
       </c>
       <c r="W23" t="n">
-        <v>1177.907550483541</v>
+        <v>1177.90755048354</v>
       </c>
       <c r="X23" t="n">
-        <v>1057.274165034229</v>
+        <v>1057.274165034228</v>
       </c>
       <c r="Y23" t="n">
-        <v>920.6554537060621</v>
+        <v>920.6554537060607</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>691.1526866843335</v>
+        <v>298.9590621750368</v>
       </c>
       <c r="C24" t="n">
-        <v>518.3995716061506</v>
+        <v>126.205947096854</v>
       </c>
       <c r="D24" t="n">
-        <v>370.8112649650944</v>
+        <v>126.205947096854</v>
       </c>
       <c r="E24" t="n">
-        <v>213.2017359679491</v>
+        <v>126.205947096854</v>
       </c>
       <c r="F24" t="n">
-        <v>213.2017359679491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G24" t="n">
-        <v>213.2017359679491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H24" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I24" t="n">
-        <v>27.11763067533491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J24" t="n">
-        <v>61.54512539052448</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K24" t="n">
-        <v>121.3021467125096</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="L24" t="n">
-        <v>431.5090521348939</v>
+        <v>522.7722213289401</v>
       </c>
       <c r="M24" t="n">
-        <v>767.0897317421634</v>
+        <v>858.3529009362094</v>
       </c>
       <c r="N24" t="n">
-        <v>767.0897317421634</v>
+        <v>1193.933580543479</v>
       </c>
       <c r="O24" t="n">
-        <v>1102.670411349433</v>
+        <v>1193.933580543479</v>
       </c>
       <c r="P24" t="n">
-        <v>1355.881533766746</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q24" t="n">
-        <v>1355.881533766746</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="R24" t="n">
-        <v>1309.919352801812</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="S24" t="n">
-        <v>1309.919352801812</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="T24" t="n">
-        <v>1110.709729472561</v>
+        <v>1190.636122308136</v>
       </c>
       <c r="U24" t="n">
-        <v>1110.709729472561</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="V24" t="n">
-        <v>1110.709729472561</v>
+        <v>963.7288882124756</v>
       </c>
       <c r="W24" t="n">
-        <v>858.195237805894</v>
+        <v>711.2143965458089</v>
       </c>
       <c r="X24" t="n">
-        <v>858.195237805894</v>
+        <v>504.6874979513864</v>
       </c>
       <c r="Y24" t="n">
-        <v>858.195237805894</v>
+        <v>298.9590621750368</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="C25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="D25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="E25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I25" t="n">
-        <v>27.11763067533491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="J25" t="n">
-        <v>27.11763067533491</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K25" t="n">
-        <v>40.36207641856531</v>
+        <v>40.36207641856529</v>
       </c>
       <c r="L25" t="n">
         <v>113.1140222032643</v>
@@ -6166,31 +6166,31 @@
         <v>393.9836153698784</v>
       </c>
       <c r="Q25" t="n">
-        <v>333.9128135979936</v>
+        <v>393.9836153698784</v>
       </c>
       <c r="R25" t="n">
-        <v>169.7756737368346</v>
+        <v>229.8464755087194</v>
       </c>
       <c r="S25" t="n">
-        <v>169.7756737368346</v>
+        <v>229.8464755087194</v>
       </c>
       <c r="T25" t="n">
-        <v>169.7756737368346</v>
+        <v>229.8464755087194</v>
       </c>
       <c r="U25" t="n">
-        <v>134.8216276217879</v>
+        <v>194.8924293936727</v>
       </c>
       <c r="V25" t="n">
-        <v>133.304654358567</v>
+        <v>62.12574113095615</v>
       </c>
       <c r="W25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="X25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.29654390294576</v>
+        <v>27.11763067533489</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>838.9121939670231</v>
       </c>
       <c r="F26" t="n">
-        <v>570.2966652117566</v>
+        <v>570.2966652117564</v>
       </c>
       <c r="G26" t="n">
-        <v>294.589518859656</v>
+        <v>294.5895188596556</v>
       </c>
       <c r="H26" t="n">
         <v>101.4106451426112</v>
       </c>
       <c r="I26" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J26" t="n">
         <v>242.6307376531323</v>
@@ -6248,10 +6248,10 @@
         <v>2863.998579996256</v>
       </c>
       <c r="R26" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S26" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T26" t="n">
         <v>2764.35706367067</v>
@@ -6266,7 +6266,7 @@
         <v>2252.837451528303</v>
       </c>
       <c r="X26" t="n">
-        <v>2021.022189792604</v>
+        <v>2021.022189792603</v>
       </c>
       <c r="Y26" t="n">
         <v>1773.221602178049</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.9541933873309</v>
+        <v>675.1617792329602</v>
       </c>
       <c r="C27" t="n">
         <v>645.201078309148</v>
@@ -6294,25 +6294,25 @@
         <v>195.0474526875635</v>
       </c>
       <c r="G27" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="H27" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="I27" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J27" t="n">
-        <v>92.36971765013733</v>
+        <v>92.36971765013735</v>
       </c>
       <c r="K27" t="n">
         <v>277.8174028813582</v>
       </c>
       <c r="L27" t="n">
-        <v>588.0243083037424</v>
+        <v>588.0243083037426</v>
       </c>
       <c r="M27" t="n">
-        <v>1002.821329491909</v>
+        <v>1002.82132949191</v>
       </c>
       <c r="N27" t="n">
         <v>1443.995525567301</v>
@@ -6321,34 +6321,34 @@
         <v>1779.955705907865</v>
       </c>
       <c r="P27" t="n">
-        <v>2033.166828325177</v>
+        <v>2033.166828325178</v>
       </c>
       <c r="Q27" t="n">
-        <v>2150.870825565503</v>
+        <v>2150.870825565504</v>
       </c>
       <c r="R27" t="n">
-        <v>2150.870825565503</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S27" t="n">
-        <v>2128.417828261266</v>
+        <v>1908.100570153334</v>
       </c>
       <c r="T27" t="n">
-        <v>2072.000619086385</v>
+        <v>1851.683360978453</v>
       </c>
       <c r="U27" t="n">
-        <v>1884.017814020729</v>
+        <v>1624.776126882792</v>
       </c>
       <c r="V27" t="n">
-        <v>1649.76657054633</v>
+        <v>1390.524883408393</v>
       </c>
       <c r="W27" t="n">
-        <v>1397.252078879663</v>
+        <v>1138.010391741726</v>
       </c>
       <c r="X27" t="n">
-        <v>1190.725180285241</v>
+        <v>1047.93276613087</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.9967445088913</v>
+        <v>842.2043303545206</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.4096372882161</v>
+        <v>152.4096372882163</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1752302999581</v>
+        <v>126.1752302999583</v>
       </c>
       <c r="D28" t="n">
-        <v>118.4569712073395</v>
+        <v>118.4569712073396</v>
       </c>
       <c r="E28" t="n">
-        <v>112.7901690251453</v>
+        <v>112.7901690251454</v>
       </c>
       <c r="F28" t="n">
-        <v>107.9472080180973</v>
+        <v>107.9472080180974</v>
       </c>
       <c r="G28" t="n">
-        <v>81.39894178682445</v>
+        <v>81.39894178682451</v>
       </c>
       <c r="H28" t="n">
-        <v>63.10078192537433</v>
+        <v>63.10078192537437</v>
       </c>
       <c r="I28" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9029897441795</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="K28" t="n">
-        <v>280.0982806001085</v>
+        <v>71.18666867817818</v>
       </c>
       <c r="L28" t="n">
-        <v>492.8010714975062</v>
+        <v>164.2359905044336</v>
       </c>
       <c r="M28" t="n">
-        <v>720.0515424870407</v>
+        <v>391.4864614939681</v>
       </c>
       <c r="N28" t="n">
-        <v>810.4166402796241</v>
+        <v>621.8024043992501</v>
       </c>
       <c r="O28" t="n">
-        <v>878.5468375505544</v>
+        <v>829.8834467828792</v>
       </c>
       <c r="P28" t="n">
-        <v>913.6215097768188</v>
+        <v>864.9581190091436</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.0335713052176</v>
+        <v>946.0335713052181</v>
       </c>
       <c r="R28" t="n">
-        <v>924.6888455984292</v>
+        <v>924.6888455984297</v>
       </c>
       <c r="S28" t="n">
-        <v>847.1433695505496</v>
+        <v>847.14336955055</v>
       </c>
       <c r="T28" t="n">
-        <v>760.3427346199344</v>
+        <v>760.3427346199348</v>
       </c>
       <c r="U28" t="n">
-        <v>614.2068122185003</v>
+        <v>614.2068122185007</v>
       </c>
       <c r="V28" t="n">
-        <v>501.507962668892</v>
+        <v>501.5079626688923</v>
       </c>
       <c r="W28" t="n">
-        <v>355.3179759268833</v>
+        <v>355.3179759268835</v>
       </c>
       <c r="X28" t="n">
-        <v>269.6857840890223</v>
+        <v>269.6857840890226</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.5199418113039</v>
+        <v>191.5199418113041</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1528.421683007778</v>
+        <v>1528.421683007779</v>
       </c>
       <c r="C29" t="n">
-        <v>1300.522081324833</v>
+        <v>1300.522081324834</v>
       </c>
       <c r="D29" t="n">
-        <v>1083.107694716983</v>
+        <v>1083.107694716984</v>
       </c>
       <c r="E29" t="n">
-        <v>838.912193967023</v>
+        <v>838.9121939670242</v>
       </c>
       <c r="F29" t="n">
-        <v>570.2966652117564</v>
+        <v>570.2966652117573</v>
       </c>
       <c r="G29" t="n">
-        <v>294.5895188596555</v>
+        <v>294.5895188596564</v>
       </c>
       <c r="H29" t="n">
         <v>101.4106451426112</v>
       </c>
       <c r="I29" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J29" t="n">
-        <v>242.6307376531322</v>
+        <v>242.6307376531323</v>
       </c>
       <c r="K29" t="n">
-        <v>571.9083451915792</v>
+        <v>571.908345191579</v>
       </c>
       <c r="L29" t="n">
-        <v>998.7048586340907</v>
+        <v>998.7048586340904</v>
       </c>
       <c r="M29" t="n">
         <v>1473.039072864971</v>
       </c>
       <c r="N29" t="n">
-        <v>1937.266784602963</v>
+        <v>1937.266784602964</v>
       </c>
       <c r="O29" t="n">
-        <v>2337.294728097804</v>
+        <v>2337.294728097805</v>
       </c>
       <c r="P29" t="n">
         <v>2662.276566415328</v>
@@ -6485,28 +6485,28 @@
         <v>2863.998579996256</v>
       </c>
       <c r="R29" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S29" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T29" t="n">
-        <v>2764.35706367067</v>
+        <v>2764.357063670671</v>
       </c>
       <c r="U29" t="n">
-        <v>2653.175187384283</v>
+        <v>2653.175187384284</v>
       </c>
       <c r="V29" t="n">
-        <v>2464.115862627018</v>
+        <v>2464.115862627019</v>
       </c>
       <c r="W29" t="n">
-        <v>2252.837451528303</v>
+        <v>2252.837451528304</v>
       </c>
       <c r="X29" t="n">
-        <v>2021.022189792603</v>
+        <v>2021.022189792604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1773.221602178049</v>
+        <v>1773.22160217805</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.8221785116958</v>
+        <v>415.9200920950234</v>
       </c>
       <c r="C30" t="n">
-        <v>749.0690634335131</v>
+        <v>385.9593911712112</v>
       </c>
       <c r="D30" t="n">
-        <v>601.480756792457</v>
+        <v>238.371084530155</v>
       </c>
       <c r="E30" t="n">
-        <v>443.8712277953117</v>
+        <v>223.5539696873804</v>
       </c>
       <c r="F30" t="n">
-        <v>298.9154378119285</v>
+        <v>221.3905938583679</v>
       </c>
       <c r="G30" t="n">
-        <v>161.8102080593128</v>
+        <v>84.28536410575211</v>
       </c>
       <c r="H30" t="n">
-        <v>57.94222293494777</v>
+        <v>84.28536410575211</v>
       </c>
       <c r="I30" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J30" t="n">
-        <v>92.36971765013733</v>
+        <v>92.36971765013735</v>
       </c>
       <c r="K30" t="n">
         <v>277.8174028813582</v>
       </c>
       <c r="L30" t="n">
-        <v>588.0243083037424</v>
+        <v>588.0243083037426</v>
       </c>
       <c r="M30" t="n">
-        <v>1002.821329491909</v>
+        <v>1002.82132949191</v>
       </c>
       <c r="N30" t="n">
         <v>1443.995525567301</v>
@@ -6558,34 +6558,34 @@
         <v>1779.955705907865</v>
       </c>
       <c r="P30" t="n">
-        <v>2033.166828325177</v>
+        <v>2033.166828325178</v>
       </c>
       <c r="Q30" t="n">
-        <v>2150.870825565503</v>
+        <v>2150.870825565504</v>
       </c>
       <c r="R30" t="n">
-        <v>2150.870825565503</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S30" t="n">
-        <v>2128.417828261266</v>
+        <v>1908.100570153334</v>
       </c>
       <c r="T30" t="n">
-        <v>2072.000619086385</v>
+        <v>1708.890946824083</v>
       </c>
       <c r="U30" t="n">
-        <v>1987.885799145094</v>
+        <v>1481.983712728422</v>
       </c>
       <c r="V30" t="n">
-        <v>1753.634555670695</v>
+        <v>1247.732469254023</v>
       </c>
       <c r="W30" t="n">
-        <v>1501.120064004028</v>
+        <v>995.2179775873559</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.593165409606</v>
+        <v>788.6910789929334</v>
       </c>
       <c r="Y30" t="n">
-        <v>1088.864729633256</v>
+        <v>582.9626432165838</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.4096372882161</v>
+        <v>152.4096372882163</v>
       </c>
       <c r="C31" t="n">
-        <v>126.1752302999581</v>
+        <v>126.1752302999583</v>
       </c>
       <c r="D31" t="n">
-        <v>118.4569712073395</v>
+        <v>118.4569712073396</v>
       </c>
       <c r="E31" t="n">
-        <v>112.7901690251453</v>
+        <v>112.7901690251454</v>
       </c>
       <c r="F31" t="n">
-        <v>107.9472080180973</v>
+        <v>107.9472080180974</v>
       </c>
       <c r="G31" t="n">
-        <v>81.39894178682445</v>
+        <v>81.39894178682451</v>
       </c>
       <c r="H31" t="n">
-        <v>63.10078192537433</v>
+        <v>63.10078192537437</v>
       </c>
       <c r="I31" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J31" t="n">
-        <v>57.94222293494777</v>
+        <v>126.9029897441795</v>
       </c>
       <c r="K31" t="n">
-        <v>71.18666867817817</v>
+        <v>140.1474354874099</v>
       </c>
       <c r="L31" t="n">
-        <v>143.9386144628772</v>
+        <v>212.8993812721089</v>
       </c>
       <c r="M31" t="n">
-        <v>371.1890854524117</v>
+        <v>391.4864614939682</v>
       </c>
       <c r="N31" t="n">
-        <v>562.9270115826254</v>
+        <v>621.8024043992502</v>
       </c>
       <c r="O31" t="n">
-        <v>771.0080539662545</v>
+        <v>689.9326016701806</v>
       </c>
       <c r="P31" t="n">
-        <v>946.0335713052176</v>
+        <v>864.9581190091436</v>
       </c>
       <c r="Q31" t="n">
-        <v>946.0335713052176</v>
+        <v>946.0335713052181</v>
       </c>
       <c r="R31" t="n">
-        <v>924.6888455984292</v>
+        <v>924.6888455984297</v>
       </c>
       <c r="S31" t="n">
-        <v>847.1433695505496</v>
+        <v>847.14336955055</v>
       </c>
       <c r="T31" t="n">
-        <v>760.3427346199344</v>
+        <v>760.3427346199348</v>
       </c>
       <c r="U31" t="n">
-        <v>614.2068122185003</v>
+        <v>614.2068122185007</v>
       </c>
       <c r="V31" t="n">
-        <v>501.507962668892</v>
+        <v>501.5079626688923</v>
       </c>
       <c r="W31" t="n">
-        <v>355.3179759268833</v>
+        <v>355.3179759268835</v>
       </c>
       <c r="X31" t="n">
-        <v>269.6857840890223</v>
+        <v>269.6857840890226</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.5199418113039</v>
+        <v>191.5199418113041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1528.421683007778</v>
+        <v>1528.421683007779</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.522081324833</v>
+        <v>1300.522081324834</v>
       </c>
       <c r="D32" t="n">
-        <v>1083.107694716983</v>
+        <v>1083.107694716984</v>
       </c>
       <c r="E32" t="n">
-        <v>838.9121939670231</v>
+        <v>838.9121939670234</v>
       </c>
       <c r="F32" t="n">
-        <v>570.2966652117566</v>
+        <v>570.2966652117568</v>
       </c>
       <c r="G32" t="n">
-        <v>294.5895188596558</v>
+        <v>294.589518859656</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4106451426112</v>
+        <v>101.4106451426113</v>
       </c>
       <c r="I32" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J32" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531325</v>
       </c>
       <c r="K32" t="n">
-        <v>571.908345191579</v>
+        <v>571.9083451915794</v>
       </c>
       <c r="L32" t="n">
-        <v>998.7048586340904</v>
+        <v>998.7048586340909</v>
       </c>
       <c r="M32" t="n">
         <v>1473.039072864971</v>
       </c>
       <c r="N32" t="n">
-        <v>1937.266784602963</v>
+        <v>1937.266784602964</v>
       </c>
       <c r="O32" t="n">
-        <v>2337.294728097804</v>
+        <v>2337.294728097805</v>
       </c>
       <c r="P32" t="n">
         <v>2662.276566415328</v>
@@ -6722,10 +6722,10 @@
         <v>2863.998579996256</v>
       </c>
       <c r="R32" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S32" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T32" t="n">
         <v>2764.35706367067</v>
@@ -6743,7 +6743,7 @@
         <v>2021.022189792604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1773.221602178049</v>
+        <v>1773.22160217805</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>538.0565494803445</v>
+        <v>532.3693650785897</v>
       </c>
       <c r="C33" t="n">
-        <v>365.3034344021617</v>
+        <v>359.6162500004068</v>
       </c>
       <c r="D33" t="n">
-        <v>360.5075419154762</v>
+        <v>354.8203575137213</v>
       </c>
       <c r="E33" t="n">
-        <v>202.8980129183309</v>
+        <v>197.210828516576</v>
       </c>
       <c r="F33" t="n">
-        <v>57.94222293494777</v>
+        <v>195.0474526875635</v>
       </c>
       <c r="G33" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="H33" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="I33" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J33" t="n">
-        <v>92.36971765013733</v>
+        <v>92.36971765013735</v>
       </c>
       <c r="K33" t="n">
         <v>277.8174028813582</v>
       </c>
       <c r="L33" t="n">
-        <v>588.0243083037424</v>
+        <v>588.0243083037426</v>
       </c>
       <c r="M33" t="n">
-        <v>1002.821329491909</v>
+        <v>1002.82132949191</v>
       </c>
       <c r="N33" t="n">
         <v>1443.995525567301</v>
@@ -6795,34 +6795,34 @@
         <v>1779.955705907865</v>
       </c>
       <c r="P33" t="n">
-        <v>2033.166828325177</v>
+        <v>2033.166828325178</v>
       </c>
       <c r="Q33" t="n">
-        <v>2150.870825565503</v>
+        <v>2150.870825565504</v>
       </c>
       <c r="R33" t="n">
-        <v>2150.870825565503</v>
+        <v>2073.345981611943</v>
       </c>
       <c r="S33" t="n">
-        <v>1985.625414106895</v>
+        <v>1908.100570153334</v>
       </c>
       <c r="T33" t="n">
-        <v>1786.415790777643</v>
+        <v>1708.890946824083</v>
       </c>
       <c r="U33" t="n">
-        <v>1604.120170113743</v>
+        <v>1481.983712728422</v>
       </c>
       <c r="V33" t="n">
-        <v>1369.868926639344</v>
+        <v>1247.732469254023</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.354434972677</v>
+        <v>995.2179775873559</v>
       </c>
       <c r="X33" t="n">
-        <v>910.8275363782545</v>
+        <v>788.6910789929334</v>
       </c>
       <c r="Y33" t="n">
-        <v>705.099100601905</v>
+        <v>582.9626432165838</v>
       </c>
     </row>
     <row r="34">
@@ -6850,31 +6850,31 @@
         <v>81.39894178682445</v>
       </c>
       <c r="H34" t="n">
-        <v>63.10078192537433</v>
+        <v>63.10078192537434</v>
       </c>
       <c r="I34" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J34" t="n">
         <v>126.9029897441795</v>
       </c>
       <c r="K34" t="n">
-        <v>140.1474354874099</v>
+        <v>231.4348898324326</v>
       </c>
       <c r="L34" t="n">
-        <v>352.8502263848076</v>
+        <v>304.1868356171317</v>
       </c>
       <c r="M34" t="n">
-        <v>440.1498522616434</v>
+        <v>391.4864614939676</v>
       </c>
       <c r="N34" t="n">
-        <v>670.4657951669254</v>
+        <v>481.8515592865509</v>
       </c>
       <c r="O34" t="n">
-        <v>878.5468375505545</v>
+        <v>689.93260167018</v>
       </c>
       <c r="P34" t="n">
-        <v>946.0335713052176</v>
+        <v>864.9581190091432</v>
       </c>
       <c r="Q34" t="n">
         <v>946.0335713052176</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>973.1799653781343</v>
+        <v>973.1799653781344</v>
       </c>
       <c r="C35" t="n">
         <v>826.655098892551</v>
       </c>
       <c r="D35" t="n">
-        <v>690.6154474820627</v>
+        <v>690.6154474820628</v>
       </c>
       <c r="E35" t="n">
-        <v>527.7946819294642</v>
+        <v>527.7946819294643</v>
       </c>
       <c r="F35" t="n">
-        <v>340.5538883715593</v>
+        <v>340.5538883715594</v>
       </c>
       <c r="G35" t="n">
         <v>146.2214772168201</v>
@@ -6935,19 +6935,19 @@
         <v>34.41733869713712</v>
       </c>
       <c r="J35" t="n">
-        <v>79.15500830262317</v>
+        <v>79.15500830262295</v>
       </c>
       <c r="K35" t="n">
-        <v>268.4817707283712</v>
+        <v>268.481770728371</v>
       </c>
       <c r="L35" t="n">
-        <v>555.327439058184</v>
+        <v>555.3274390581839</v>
       </c>
       <c r="M35" t="n">
-        <v>889.7108081763658</v>
+        <v>889.7108081763656</v>
       </c>
       <c r="N35" t="n">
-        <v>1213.98767480166</v>
+        <v>1213.987674801659</v>
       </c>
       <c r="O35" t="n">
         <v>1474.064773183802</v>
@@ -6980,7 +6980,7 @@
         <v>1303.031001768236</v>
       </c>
       <c r="Y35" t="n">
-        <v>1136.605149351043</v>
+        <v>1136.605149351044</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>657.3240793969045</v>
+        <v>354.758760416376</v>
       </c>
       <c r="C36" t="n">
-        <v>484.5709643187217</v>
+        <v>182.0056453381933</v>
       </c>
       <c r="D36" t="n">
-        <v>336.9826576776655</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="E36" t="n">
-        <v>179.3731286805203</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="F36" t="n">
         <v>34.41733869713712</v>
@@ -7017,22 +7017,22 @@
         <v>34.41733869713712</v>
       </c>
       <c r="K36" t="n">
-        <v>34.41733869713712</v>
+        <v>219.865023928358</v>
       </c>
       <c r="L36" t="n">
-        <v>344.6242441195213</v>
+        <v>509.2402276339788</v>
       </c>
       <c r="M36" t="n">
-        <v>759.4212653076883</v>
+        <v>924.0372488221458</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.33583168476</v>
+        <v>1349.951815199218</v>
       </c>
       <c r="O36" t="n">
-        <v>1521.296012025324</v>
+        <v>1349.951815199218</v>
       </c>
       <c r="P36" t="n">
-        <v>1720.866934856856</v>
+        <v>1603.16293761653</v>
       </c>
       <c r="Q36" t="n">
         <v>1720.866934856856</v>
@@ -7041,25 +7041,25 @@
         <v>1720.866934856856</v>
       </c>
       <c r="S36" t="n">
-        <v>1720.866934856856</v>
+        <v>1555.621523398248</v>
       </c>
       <c r="T36" t="n">
-        <v>1720.866934856856</v>
+        <v>1356.411900068996</v>
       </c>
       <c r="U36" t="n">
-        <v>1718.126850112927</v>
+        <v>1353.671815325068</v>
       </c>
       <c r="V36" t="n">
-        <v>1489.136456555904</v>
+        <v>1186.571137575375</v>
       </c>
       <c r="W36" t="n">
-        <v>1236.621964889237</v>
+        <v>934.0566459087086</v>
       </c>
       <c r="X36" t="n">
-        <v>1030.095066294814</v>
+        <v>727.5297473142861</v>
       </c>
       <c r="Y36" t="n">
-        <v>824.3666305184649</v>
+        <v>521.8013115379365</v>
       </c>
     </row>
     <row r="37">
@@ -7096,7 +7096,7 @@
         <v>34.41733869713712</v>
       </c>
       <c r="K37" t="n">
-        <v>47.66178444036752</v>
+        <v>47.66178444036753</v>
       </c>
       <c r="L37" t="n">
         <v>120.4137302250666</v>
@@ -7108,31 +7108,31 @@
         <v>298.0784538944858</v>
       </c>
       <c r="O37" t="n">
-        <v>366.2086511654162</v>
+        <v>366.2086511654163</v>
       </c>
       <c r="P37" t="n">
-        <v>401.2833233916806</v>
+        <v>401.2833233916807</v>
       </c>
       <c r="Q37" t="n">
-        <v>401.2833233916806</v>
+        <v>341.2125216197959</v>
       </c>
       <c r="R37" t="n">
-        <v>401.2833233916806</v>
+        <v>205.0012481718556</v>
       </c>
       <c r="S37" t="n">
-        <v>205.0012481718559</v>
+        <v>205.0012481718556</v>
       </c>
       <c r="T37" t="n">
-        <v>199.5753484386024</v>
+        <v>199.5753484386022</v>
       </c>
       <c r="U37" t="n">
-        <v>134.81416123453</v>
+        <v>134.8141612345298</v>
       </c>
       <c r="V37" t="n">
-        <v>103.4900468822834</v>
+        <v>103.4900468822833</v>
       </c>
       <c r="W37" t="n">
-        <v>38.67479533763636</v>
+        <v>38.6747953376363</v>
       </c>
       <c r="X37" t="n">
         <v>34.41733869713712</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>973.1799653781345</v>
+        <v>973.179965378135</v>
       </c>
       <c r="C38" t="n">
-        <v>826.655098892551</v>
+        <v>826.6550988925515</v>
       </c>
       <c r="D38" t="n">
-        <v>690.6154474820628</v>
+        <v>690.6154474820632</v>
       </c>
       <c r="E38" t="n">
-        <v>527.7946819294643</v>
+        <v>527.7946819294648</v>
       </c>
       <c r="F38" t="n">
-        <v>340.5538883715594</v>
+        <v>340.5538883715599</v>
       </c>
       <c r="G38" t="n">
         <v>146.2214772168201</v>
@@ -7172,16 +7172,16 @@
         <v>34.41733869713712</v>
       </c>
       <c r="J38" t="n">
-        <v>79.1550083026228</v>
+        <v>79.15500830262295</v>
       </c>
       <c r="K38" t="n">
-        <v>268.4817707283709</v>
+        <v>268.481770728371</v>
       </c>
       <c r="L38" t="n">
-        <v>555.3274390581837</v>
+        <v>555.3274390581839</v>
       </c>
       <c r="M38" t="n">
-        <v>889.7108081763654</v>
+        <v>889.7108081763656</v>
       </c>
       <c r="N38" t="n">
         <v>1213.987674801659</v>
@@ -7214,7 +7214,7 @@
         <v>1453.471528306574</v>
       </c>
       <c r="X38" t="n">
-        <v>1303.031001768236</v>
+        <v>1303.031001768237</v>
       </c>
       <c r="Y38" t="n">
         <v>1136.605149351044</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>734.6495305000346</v>
+        <v>621.1269436030054</v>
       </c>
       <c r="C39" t="n">
-        <v>561.8964154218518</v>
+        <v>448.3738285248226</v>
       </c>
       <c r="D39" t="n">
-        <v>414.3081087807957</v>
+        <v>300.7855218837665</v>
       </c>
       <c r="E39" t="n">
-        <v>256.6985797836504</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="F39" t="n">
-        <v>111.7427898002672</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="G39" t="n">
-        <v>111.7427898002672</v>
+        <v>143.1759928866212</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7427898002672</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="I39" t="n">
         <v>34.41733869713712</v>
@@ -7254,16 +7254,16 @@
         <v>68.84483341232668</v>
       </c>
       <c r="K39" t="n">
-        <v>254.2925186435476</v>
+        <v>68.84483341232668</v>
       </c>
       <c r="L39" t="n">
-        <v>564.4994240659319</v>
+        <v>379.051738834711</v>
       </c>
       <c r="M39" t="n">
-        <v>588.0770684815819</v>
+        <v>793.848760022878</v>
       </c>
       <c r="N39" t="n">
-        <v>1013.991634858654</v>
+        <v>1219.76332639995</v>
       </c>
       <c r="O39" t="n">
         <v>1349.951815199218</v>
@@ -7278,25 +7278,25 @@
         <v>1643.342090903295</v>
       </c>
       <c r="S39" t="n">
-        <v>1478.096679444687</v>
+        <v>1643.342090903295</v>
       </c>
       <c r="T39" t="n">
-        <v>1278.887056115435</v>
+        <v>1444.132467574043</v>
       </c>
       <c r="U39" t="n">
-        <v>1276.146971371506</v>
+        <v>1441.392382830115</v>
       </c>
       <c r="V39" t="n">
-        <v>1135.767859712879</v>
+        <v>1207.141139355716</v>
       </c>
       <c r="W39" t="n">
-        <v>1107.420517397945</v>
+        <v>954.626647689049</v>
       </c>
       <c r="X39" t="n">
-        <v>1107.420517397945</v>
+        <v>748.0997490946265</v>
       </c>
       <c r="Y39" t="n">
-        <v>901.6920816215951</v>
+        <v>748.0997490946265</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>34.41733869713712</v>
       </c>
       <c r="K40" t="n">
-        <v>47.66178444036752</v>
+        <v>47.66178444036753</v>
       </c>
       <c r="L40" t="n">
         <v>120.4137302250666</v>
@@ -7345,31 +7345,31 @@
         <v>298.0784538944858</v>
       </c>
       <c r="O40" t="n">
-        <v>366.2086511654162</v>
+        <v>366.2086511654163</v>
       </c>
       <c r="P40" t="n">
-        <v>401.2833233916806</v>
+        <v>401.2833233916807</v>
       </c>
       <c r="Q40" t="n">
-        <v>341.2125216197958</v>
+        <v>401.2833233916807</v>
       </c>
       <c r="R40" t="n">
-        <v>341.2125216197958</v>
+        <v>401.2833233916807</v>
       </c>
       <c r="S40" t="n">
-        <v>341.2125216197958</v>
+        <v>401.2833233916807</v>
       </c>
       <c r="T40" t="n">
-        <v>199.5753484386024</v>
+        <v>395.8574236584272</v>
       </c>
       <c r="U40" t="n">
-        <v>134.81416123453</v>
+        <v>331.0962364543548</v>
       </c>
       <c r="V40" t="n">
-        <v>103.4900468822834</v>
+        <v>103.4900468822833</v>
       </c>
       <c r="W40" t="n">
-        <v>38.67479533763636</v>
+        <v>38.6747953376363</v>
       </c>
       <c r="X40" t="n">
         <v>34.41733869713712</v>
@@ -7397,7 +7397,7 @@
         <v>532.137890534369</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5586238843866</v>
+        <v>343.5586238843867</v>
       </c>
       <c r="G41" t="n">
         <v>147.8877396375698</v>
@@ -7406,34 +7406,34 @@
         <v>34.74512802580917</v>
       </c>
       <c r="I41" t="n">
-        <v>50.80680513073958</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="J41" t="n">
-        <v>95.5444747362254</v>
+        <v>79.482797631295</v>
       </c>
       <c r="K41" t="n">
-        <v>284.8712371619735</v>
+        <v>268.8095600570431</v>
       </c>
       <c r="L41" t="n">
-        <v>571.7169054917863</v>
+        <v>555.6552283868559</v>
       </c>
       <c r="M41" t="n">
-        <v>906.100274609968</v>
+        <v>890.0385975050377</v>
       </c>
       <c r="N41" t="n">
-        <v>1230.377141235262</v>
+        <v>1214.315464130331</v>
       </c>
       <c r="O41" t="n">
-        <v>1490.454239617404</v>
+        <v>1474.392562512474</v>
       </c>
       <c r="P41" t="n">
-        <v>1675.48523282223</v>
+        <v>1659.423555717299</v>
       </c>
       <c r="Q41" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="R41" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="S41" t="n">
         <v>1737.256401290459</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>500.0423397284313</v>
+        <v>339.9429636640106</v>
       </c>
       <c r="C42" t="n">
-        <v>327.2892246502485</v>
+        <v>339.9429636640106</v>
       </c>
       <c r="D42" t="n">
-        <v>179.7009180091923</v>
+        <v>192.3546570229545</v>
       </c>
       <c r="E42" t="n">
-        <v>179.7009180091923</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="F42" t="n">
         <v>34.74512802580917</v>
@@ -7497,43 +7497,43 @@
         <v>564.8272133946039</v>
       </c>
       <c r="M42" t="n">
-        <v>979.6242345827708</v>
+        <v>979.6242345827709</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.595193902159</v>
+        <v>1030.381101292257</v>
       </c>
       <c r="O42" t="n">
-        <v>1737.256401290459</v>
+        <v>1366.34128163282</v>
       </c>
       <c r="P42" t="n">
-        <v>1737.256401290459</v>
+        <v>1619.552404050133</v>
       </c>
       <c r="Q42" t="n">
         <v>1737.256401290459</v>
       </c>
       <c r="R42" t="n">
-        <v>1737.256401290459</v>
+        <v>1659.731557336898</v>
       </c>
       <c r="S42" t="n">
-        <v>1737.256401290459</v>
+        <v>1494.486145878289</v>
       </c>
       <c r="T42" t="n">
-        <v>1737.256401290459</v>
+        <v>1295.276522549038</v>
       </c>
       <c r="U42" t="n">
-        <v>1566.10596036183</v>
+        <v>1068.369288453377</v>
       </c>
       <c r="V42" t="n">
-        <v>1331.854716887431</v>
+        <v>966.0269050466603</v>
       </c>
       <c r="W42" t="n">
-        <v>1079.340225220764</v>
+        <v>713.5124133799936</v>
       </c>
       <c r="X42" t="n">
-        <v>872.8133266263413</v>
+        <v>506.9855147855711</v>
       </c>
       <c r="Y42" t="n">
-        <v>667.0848908499918</v>
+        <v>506.9855147855711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="C43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="D43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="E43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="F43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="G43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="H43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="I43" t="n">
         <v>34.74512802580917</v>
@@ -7570,7 +7570,7 @@
         <v>34.74512802580917</v>
       </c>
       <c r="K43" t="n">
-        <v>47.98957376903957</v>
+        <v>47.98957376903958</v>
       </c>
       <c r="L43" t="n">
         <v>120.7415195537386</v>
@@ -7579,7 +7579,7 @@
         <v>208.0411454305745</v>
       </c>
       <c r="N43" t="n">
-        <v>298.4062432231578</v>
+        <v>298.4062432231579</v>
       </c>
       <c r="O43" t="n">
         <v>366.5364404940883</v>
@@ -7597,22 +7597,22 @@
         <v>237.4739728591937</v>
       </c>
       <c r="T43" t="n">
-        <v>230.7096000338626</v>
+        <v>230.7096000338627</v>
       </c>
       <c r="U43" t="n">
-        <v>164.6099397377126</v>
+        <v>139.1573698394346</v>
       </c>
       <c r="V43" t="n">
-        <v>131.9473522933885</v>
+        <v>106.4947823951105</v>
       </c>
       <c r="W43" t="n">
-        <v>65.79362765666396</v>
+        <v>40.34105775838595</v>
       </c>
       <c r="X43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.19769792408718</v>
+        <v>34.74512802580917</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>981.5385932592728</v>
       </c>
       <c r="C44" t="n">
-        <v>833.6752536816116</v>
+        <v>833.6752536816118</v>
       </c>
       <c r="D44" t="n">
-        <v>696.2971291790457</v>
+        <v>696.2971291790459</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1378905343695</v>
+        <v>532.1378905343696</v>
       </c>
       <c r="F44" t="n">
         <v>343.5586238843871</v>
@@ -7655,22 +7655,22 @@
         <v>555.6552283868559</v>
       </c>
       <c r="M44" t="n">
-        <v>890.0385975050376</v>
+        <v>890.0385975050377</v>
       </c>
       <c r="N44" t="n">
         <v>1214.315464130331</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.392562512474</v>
+        <v>1490.454239617404</v>
       </c>
       <c r="P44" t="n">
-        <v>1659.423555717299</v>
+        <v>1675.48523282223</v>
       </c>
       <c r="Q44" t="n">
-        <v>1721.194724185528</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="R44" t="n">
-        <v>1721.194724185528</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="S44" t="n">
         <v>1737.256401290459</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>690.7332757514573</v>
+        <v>492.1917794976638</v>
       </c>
       <c r="C45" t="n">
-        <v>517.9801606732744</v>
+        <v>319.438664419481</v>
       </c>
       <c r="D45" t="n">
-        <v>370.3918540322183</v>
+        <v>171.8503577784249</v>
       </c>
       <c r="E45" t="n">
-        <v>212.782325035073</v>
+        <v>171.8503577784249</v>
       </c>
       <c r="F45" t="n">
-        <v>67.82653505168986</v>
+        <v>171.8503577784249</v>
       </c>
       <c r="G45" t="n">
-        <v>67.82653505168986</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="H45" t="n">
-        <v>67.82653505168986</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="I45" t="n">
         <v>34.74512802580917</v>
       </c>
       <c r="J45" t="n">
-        <v>69.17262274099873</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="K45" t="n">
-        <v>254.6203079722196</v>
+        <v>211.3663957028805</v>
       </c>
       <c r="L45" t="n">
-        <v>564.8272133946039</v>
+        <v>521.5733011252648</v>
       </c>
       <c r="M45" t="n">
-        <v>979.6242345827708</v>
+        <v>936.3703223134318</v>
       </c>
       <c r="N45" t="n">
-        <v>1409.595193902159</v>
+        <v>1366.34128163282</v>
       </c>
       <c r="O45" t="n">
-        <v>1737.256401290459</v>
+        <v>1366.34128163282</v>
       </c>
       <c r="P45" t="n">
-        <v>1737.256401290459</v>
+        <v>1619.552404050133</v>
       </c>
       <c r="Q45" t="n">
         <v>1737.256401290459</v>
@@ -7752,25 +7752,25 @@
         <v>1737.256401290459</v>
       </c>
       <c r="S45" t="n">
-        <v>1737.256401290459</v>
+        <v>1572.01098983185</v>
       </c>
       <c r="T45" t="n">
-        <v>1538.046777961207</v>
+        <v>1372.801366502599</v>
       </c>
       <c r="U45" t="n">
-        <v>1533.968220125201</v>
+        <v>1145.894132406938</v>
       </c>
       <c r="V45" t="n">
-        <v>1522.545652910457</v>
+        <v>1134.471565192194</v>
       </c>
       <c r="W45" t="n">
-        <v>1270.03116124379</v>
+        <v>881.9570735255269</v>
       </c>
       <c r="X45" t="n">
-        <v>1063.504262649367</v>
+        <v>697.9202152740133</v>
       </c>
       <c r="Y45" t="n">
-        <v>857.7758268730178</v>
+        <v>492.1917794976638</v>
       </c>
     </row>
     <row r="46">
@@ -7807,7 +7807,7 @@
         <v>34.74512802580917</v>
       </c>
       <c r="K46" t="n">
-        <v>47.98957376903957</v>
+        <v>47.98957376903958</v>
       </c>
       <c r="L46" t="n">
         <v>120.7415195537386</v>
@@ -7816,7 +7816,7 @@
         <v>208.0411454305745</v>
       </c>
       <c r="N46" t="n">
-        <v>298.4062432231578</v>
+        <v>298.4062432231579</v>
       </c>
       <c r="O46" t="n">
         <v>366.5364404940883</v>
@@ -7834,16 +7834,16 @@
         <v>401.6111127203527</v>
       </c>
       <c r="T46" t="n">
-        <v>205.2570301355845</v>
+        <v>394.8467398950217</v>
       </c>
       <c r="U46" t="n">
-        <v>139.1573698394346</v>
+        <v>328.7470795988718</v>
       </c>
       <c r="V46" t="n">
-        <v>106.4947823951104</v>
+        <v>296.0844921545477</v>
       </c>
       <c r="W46" t="n">
-        <v>40.34105775838592</v>
+        <v>229.9307675178231</v>
       </c>
       <c r="X46" t="n">
         <v>34.74512802580917</v>
@@ -8693,16 +8693,16 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>400.6213737960886</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>127.2884108578639</v>
+        <v>356.2462613014263</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132552</v>
+        <v>133.3280487333133</v>
       </c>
       <c r="P11" t="n">
         <v>334.6706564983419</v>
@@ -8766,22 +8766,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>96.35942956696502</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>87.72295232013141</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>139.8207660352321</v>
       </c>
       <c r="M12" t="n">
-        <v>65.3463762109424</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N12" t="n">
-        <v>368.0988999523723</v>
+        <v>52.8855682310414</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2334779737637</v>
+        <v>409.2334779737638</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8927,13 +8927,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>145.8720751086093</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>264.3081372308912</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>168.5905146304446</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -8945,7 +8945,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>158.4124706214232</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696502</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9012,19 +9012,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>404.3167596526284</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N15" t="n">
-        <v>181.6941121785933</v>
+        <v>52.8855682310414</v>
       </c>
       <c r="O15" t="n">
-        <v>409.2334779737637</v>
+        <v>198.1555320804584</v>
       </c>
       <c r="P15" t="n">
-        <v>75.4324688629965</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>130.6709145208902</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>144.6245638094251</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325458</v>
+        <v>129.7330959252915</v>
       </c>
       <c r="N17" t="n">
-        <v>428.4747861025939</v>
+        <v>431.3031004287387</v>
       </c>
       <c r="O17" t="n">
         <v>396.0321885132552</v>
@@ -9240,7 +9240,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>96.35942956696502</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9249,19 +9249,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>228.9301673455545</v>
+        <v>65.34637621094238</v>
       </c>
       <c r="N18" t="n">
-        <v>391.8559516727275</v>
+        <v>391.8559516727276</v>
       </c>
       <c r="O18" t="n">
         <v>409.2334779737637</v>
       </c>
       <c r="P18" t="n">
-        <v>75.4324688629965</v>
+        <v>85.34808630516903</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>130.6709145208902</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>145.8720751086093</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>309.4977024889579</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884635</v>
+        <v>127.2884108578639</v>
       </c>
       <c r="O20" t="n">
-        <v>396.0321885132552</v>
+        <v>362.285899176876</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
@@ -9480,22 +9480,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>87.72295232013141</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>72.3336506081387</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>404.3167596526285</v>
+        <v>65.34637621094238</v>
       </c>
       <c r="N21" t="n">
-        <v>391.8559516727275</v>
+        <v>146.0027585923622</v>
       </c>
       <c r="O21" t="n">
-        <v>409.2334779737637</v>
+        <v>409.2334779737638</v>
       </c>
       <c r="P21" t="n">
-        <v>247.038905543892</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>130.6709145208902</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>145.8720751086093</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
-        <v>309.497702488959</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>467.4940748325458</v>
+        <v>129.7330959252915</v>
       </c>
       <c r="N23" t="n">
         <v>454.8408013884635</v>
@@ -9656,7 +9656,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>197.269889326576</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696502</v>
       </c>
       <c r="K24" t="n">
-        <v>148.0835799180962</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>404.3167596526288</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N24" t="n">
-        <v>52.88556823104142</v>
+        <v>391.8559516727276</v>
       </c>
       <c r="O24" t="n">
-        <v>409.233477973764</v>
+        <v>70.26309453207757</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>120.1233334922292</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10665,10 +10665,10 @@
         <v>96.35942956696502</v>
       </c>
       <c r="K36" t="n">
-        <v>87.72295232013141</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>364.6318361693718</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10677,13 +10677,13 @@
         <v>483.1023019452554</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>70.26309453207757</v>
       </c>
       <c r="P36" t="n">
-        <v>277.0192596019175</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789566</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>337.1112290740114</v>
@@ -10902,19 +10902,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013141</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>89.16217865099297</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>483.1023019452555</v>
+        <v>483.1023019452554</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>201.766618571742</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11148,16 +11148,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>487.1996685536561</v>
+        <v>104.1551305638552</v>
       </c>
       <c r="O42" t="n">
-        <v>401.2340110859153</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>75.4324688629965</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,10 +11373,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696502</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>266.1282732060621</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11388,13 +11388,13 @@
         <v>487.1996685536561</v>
       </c>
       <c r="O45" t="n">
-        <v>401.2340110859153</v>
+        <v>70.26309453207757</v>
       </c>
       <c r="P45" t="n">
-        <v>75.4324688629965</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.3703561744173</v>
+        <v>239.2980585815354</v>
       </c>
       <c r="C11" t="n">
-        <v>222.566744269083</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>212.1863813447388</v>
       </c>
       <c r="E11" t="n">
-        <v>238.6996843454278</v>
+        <v>170.2837701245825</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.8962134915471</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.97987658855408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.13678136468738</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.1148701126597</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.111765590695</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>226.4432477213098</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>242.2687203413762</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.2980585815355</v>
       </c>
       <c r="C14" t="n">
-        <v>222.566744269083</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1863813447387</v>
+        <v>155.7515941493212</v>
       </c>
       <c r="E14" t="n">
-        <v>238.6996843454278</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>262.8755120706812</v>
+        <v>262.8755120706813</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>269.8962134915471</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.97987658855414</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.13678136468742</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.1117655906949</v>
+        <v>206.111765590695</v>
       </c>
       <c r="X14" t="n">
-        <v>226.4432477213097</v>
+        <v>226.4432477213098</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.60971421639471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26314,43 +26314,43 @@
         <v>324862.5511022962</v>
       </c>
       <c r="C2" t="n">
-        <v>324862.5511022962</v>
+        <v>324862.5511022963</v>
       </c>
       <c r="D2" t="n">
-        <v>324862.5511022963</v>
+        <v>324862.5511022964</v>
       </c>
       <c r="E2" t="n">
-        <v>279415.9047480368</v>
+        <v>279415.9047480369</v>
       </c>
       <c r="F2" t="n">
-        <v>279415.9047480368</v>
+        <v>279415.9047480372</v>
       </c>
       <c r="G2" t="n">
         <v>325567.7634459747</v>
       </c>
       <c r="H2" t="n">
-        <v>325567.7634459749</v>
+        <v>325567.7634459748</v>
       </c>
       <c r="I2" t="n">
         <v>325567.7634459747</v>
       </c>
       <c r="J2" t="n">
-        <v>325567.7634459744</v>
+        <v>325567.7634459748</v>
       </c>
       <c r="K2" t="n">
+        <v>325567.7634459746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>325567.7634459748</v>
+      </c>
+      <c r="M2" t="n">
         <v>325567.7634459747</v>
       </c>
-      <c r="L2" t="n">
-        <v>325567.7634459744</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>325567.7634459746</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>325567.7634459745</v>
-      </c>
-      <c r="O2" t="n">
-        <v>325567.7634459744</v>
       </c>
       <c r="P2" t="n">
         <v>325567.7634459746</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>324700.9579571124</v>
+        <v>324700.9579571125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85612.95690119268</v>
+        <v>85612.95690119275</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85612.95690119268</v>
+        <v>85612.95690119278</v>
       </c>
       <c r="M3" t="n">
-        <v>75640.37506652034</v>
+        <v>75640.37506652038</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27404.59979182168</v>
+        <v>27404.59979182159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>324304.765881063</v>
       </c>
       <c r="F4" t="n">
-        <v>324304.7658810631</v>
+        <v>324304.765881063</v>
       </c>
       <c r="G4" t="n">
-        <v>390012.5802270993</v>
+        <v>390012.5802270992</v>
       </c>
       <c r="H4" t="n">
         <v>390012.5802270993</v>
       </c>
       <c r="I4" t="n">
-        <v>390012.5802270993</v>
+        <v>390012.5802270992</v>
       </c>
       <c r="J4" t="n">
         <v>386268.9668810163</v>
@@ -26448,13 +26448,13 @@
         <v>386268.9668810163</v>
       </c>
       <c r="M4" t="n">
-        <v>386358.0892739211</v>
+        <v>386358.0892739212</v>
       </c>
       <c r="N4" t="n">
-        <v>386358.0892739211</v>
+        <v>386358.0892739212</v>
       </c>
       <c r="O4" t="n">
-        <v>386317.6622646821</v>
+        <v>386317.662264682</v>
       </c>
       <c r="P4" t="n">
         <v>386317.662264682</v>
@@ -26482,22 +26482,22 @@
         <v>35679.87797245102</v>
       </c>
       <c r="G5" t="n">
-        <v>44676.62256460898</v>
+        <v>44676.62256460899</v>
       </c>
       <c r="H5" t="n">
-        <v>44676.62256460898</v>
+        <v>44676.622564609</v>
       </c>
       <c r="I5" t="n">
-        <v>44676.622564609</v>
+        <v>44676.62256460899</v>
       </c>
       <c r="J5" t="n">
-        <v>58849.83301596966</v>
+        <v>58849.83301596967</v>
       </c>
       <c r="K5" t="n">
-        <v>58849.83301596966</v>
+        <v>58849.83301596967</v>
       </c>
       <c r="L5" t="n">
-        <v>58849.83301596966</v>
+        <v>58849.83301596968</v>
       </c>
       <c r="M5" t="n">
         <v>47743.60268240751</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151995.5321347201</v>
+        <v>-151999.939711868</v>
       </c>
       <c r="C6" t="n">
-        <v>-151995.5321347201</v>
+        <v>-151999.939711868</v>
       </c>
       <c r="D6" t="n">
-        <v>-151995.53213472</v>
+        <v>-151999.9397118678</v>
       </c>
       <c r="E6" t="n">
-        <v>-405269.6970625896</v>
+        <v>-405558.1461794517</v>
       </c>
       <c r="F6" t="n">
-        <v>-80568.73910547733</v>
+        <v>-80857.18822233897</v>
       </c>
       <c r="G6" t="n">
-        <v>-194734.3962469263</v>
+        <v>-194734.3962469262</v>
       </c>
       <c r="H6" t="n">
-        <v>-109121.4393457334</v>
+        <v>-109121.4393457335</v>
       </c>
       <c r="I6" t="n">
-        <v>-109121.4393457336</v>
+        <v>-109121.4393457335</v>
       </c>
       <c r="J6" t="n">
-        <v>-247843.0417747572</v>
+        <v>-247843.0417747569</v>
       </c>
       <c r="K6" t="n">
-        <v>-119551.0364510113</v>
+        <v>-119551.0364510114</v>
       </c>
       <c r="L6" t="n">
-        <v>-205163.9933522042</v>
+        <v>-205163.9933522039</v>
       </c>
       <c r="M6" t="n">
-        <v>-184174.3035768743</v>
+        <v>-184174.3035768744</v>
       </c>
       <c r="N6" t="n">
         <v>-108533.9285103541</v>
       </c>
       <c r="O6" t="n">
-        <v>-136035.8223292935</v>
+        <v>-136035.8223292933</v>
       </c>
       <c r="P6" t="n">
         <v>-108631.2225374716</v>
@@ -26716,10 +26716,10 @@
         <v>141.3644900128269</v>
       </c>
       <c r="M2" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="N2" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="O2" t="n">
         <v>220.6003894970582</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="F4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="G4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="H4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="I4" t="n">
-        <v>338.9703834416864</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="J4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868472</v>
       </c>
       <c r="K4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868472</v>
       </c>
       <c r="L4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868472</v>
       </c>
       <c r="M4" t="n">
         <v>430.216733714214</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.34829388633608</v>
+        <v>34.34829388633602</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.0161961264909</v>
+        <v>107.016196126491</v>
       </c>
       <c r="M2" t="n">
-        <v>80.56098784538807</v>
+        <v>80.56098784538813</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.02320552517932</v>
+        <v>33.02320552517921</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>385.3074032451607</v>
+        <v>385.307403245161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.34829388633608</v>
+        <v>34.34829388633602</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.4183514098596</v>
+        <v>144.3230733585055</v>
       </c>
       <c r="C12" t="n">
         <v>144.4183514098596</v>
@@ -28175,19 +28175,19 @@
         <v>144.4183514098596</v>
       </c>
       <c r="E12" t="n">
-        <v>8.786294825342878</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>107.6710676475892</v>
       </c>
       <c r="I12" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>144.4183514098596</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="X12" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="Y12" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28281,16 +28281,16 @@
         <v>144.4183514098596</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>102.8514314095438</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>102.8514314095439</v>
       </c>
       <c r="R13" t="n">
         <v>144.4183514098596</v>
@@ -28406,19 +28406,19 @@
         <v>144.4183514098596</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="D15" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8587574400964</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H15" t="n">
         <v>107.6710676475892</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.74959551402546</v>
+        <v>8.786294825342765</v>
       </c>
       <c r="S15" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="T15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="V15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28509,22 +28509,22 @@
         <v>144.4183514098596</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>30.14022980116714</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>144.4183514098596</v>
-      </c>
-      <c r="N16" t="n">
-        <v>144.4183514098596</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>30.14022980116565</v>
       </c>
       <c r="Q16" t="n">
         <v>144.4183514098596</v>
@@ -28661,7 +28661,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>49.55090053176457</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>6.623273691602236</v>
       </c>
     </row>
     <row r="19">
@@ -28773,10 +28773,10 @@
         <v>218.1345113002278</v>
       </c>
       <c r="T19" t="n">
-        <v>227.297118594136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>251.4345475363505</v>
+        <v>186.2986798184384</v>
       </c>
       <c r="V19" t="n">
         <v>251.4345475363505</v>
@@ -28785,10 +28785,10 @@
         <v>251.4345475363505</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.4560474880293</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7341774550896</v>
+        <v>86.88253387427778</v>
       </c>
       <c r="H21" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,19 +28928,19 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S21" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.803970737602</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.47009375416589</v>
       </c>
       <c r="R22" t="n">
         <v>162.4957684625474</v>
       </c>
       <c r="S22" t="n">
-        <v>218.1345113002278</v>
+        <v>177.1360725245301</v>
       </c>
       <c r="T22" t="n">
         <v>227.297118594136</v>
@@ -29016,7 +29016,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="V22" t="n">
-        <v>18.47165497846834</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>251.4345475363505</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>45.40879882624537</v>
       </c>
       <c r="G24" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.2470363587414</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S24" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -29180,10 +29180,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29214,7 +29214,7 @@
         <v>159.4796682756625</v>
       </c>
       <c r="I25" t="n">
-        <v>76.00433931801449</v>
+        <v>146.4714634133492</v>
       </c>
       <c r="J25" t="n">
         <v>71.70714980148178</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.47009375416589</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="V25" t="n">
-        <v>251.4345475363505</v>
+        <v>121.4973296868498</v>
       </c>
       <c r="W25" t="n">
         <v>251.4345475363505</v>
@@ -29314,7 +29314,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="P26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Q26" t="n">
         <v>141.3644900128269</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>141.3644900128269</v>
       </c>
       <c r="U27" t="n">
-        <v>38.5351847397055</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>115.2847802537305</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>141.3644900128269</v>
       </c>
       <c r="J28" t="n">
-        <v>141.3644900128269</v>
+        <v>71.70714980148178</v>
       </c>
       <c r="K28" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>141.3644900128269</v>
+        <v>20.50240004197614</v>
       </c>
       <c r="M28" t="n">
         <v>141.3644900128269</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>92.20954984345761</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R28" t="n">
         <v>141.3644900128269</v>
@@ -29542,7 +29542,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="M29" t="n">
-        <v>141.3644900128269</v>
+        <v>141.3644900128273</v>
       </c>
       <c r="N29" t="n">
         <v>141.3644900128269</v>
@@ -29591,25 +29591,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.841762374467848</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I30" t="n">
-        <v>76.55219659209881</v>
+        <v>50.47248683300252</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>141.3644900128269</v>
       </c>
       <c r="J31" t="n">
-        <v>71.70714980148178</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,19 +29700,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>92.20954984345801</v>
+      </c>
+      <c r="N31" t="n">
         <v>141.3644900128269</v>
       </c>
-      <c r="N31" t="n">
-        <v>102.3967963006367</v>
-      </c>
       <c r="O31" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>141.3644900128269</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.47009375416589</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R31" t="n">
         <v>141.3644900128269</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>115.2847802537306</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.6710676475892</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>44.16549729744304</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>141.3644900128269</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>92.20954984345734</v>
       </c>
       <c r="L34" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>141.3644900128269</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>141.3644900128269</v>
       </c>
       <c r="P34" t="n">
-        <v>32.73945608929159</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.47009375416589</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R34" t="n">
         <v>141.3644900128269</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="C35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="D35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="E35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="F35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="G35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="H35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="I35" t="n">
         <v>184.3982279984137</v>
@@ -30040,19 +30040,19 @@
         <v>220.6003894970583</v>
       </c>
       <c r="U35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="W35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="X35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="Y35" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>135.7341774550896</v>
@@ -30113,16 +30113,16 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S36" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V36" t="n">
-        <v>5.208241418201879</v>
+        <v>66.47906006745976</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30186,28 +30186,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.47009375416589</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>162.4957684625474</v>
+        <v>27.64660774908654</v>
       </c>
       <c r="S37" t="n">
-        <v>23.81525683260134</v>
+        <v>218.1345113002278</v>
       </c>
       <c r="T37" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="U37" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V37" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="W37" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="X37" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="C38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="D38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="E38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="F38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="G38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="H38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="I38" t="n">
         <v>184.3982279984137</v>
@@ -30277,19 +30277,19 @@
         <v>220.6003894970583</v>
       </c>
       <c r="U38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="W38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="X38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="Y38" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>39.66904817363994</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H39" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,25 +30350,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V39" t="n">
-        <v>92.93341049761403</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>221.925477858215</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>59.47009375416589</v>
       </c>
       <c r="R40" t="n">
         <v>162.4957684625474</v>
@@ -30432,19 +30432,19 @@
         <v>218.1345113002278</v>
       </c>
       <c r="T40" t="n">
-        <v>87.07631714475451</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="U40" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="V40" t="n">
-        <v>221.925477858215</v>
+        <v>27.60622339058833</v>
       </c>
       <c r="W40" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="X40" t="n">
-        <v>221.925477858215</v>
+        <v>221.9254778582151</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30478,7 +30478,7 @@
         <v>220.6003894970582</v>
       </c>
       <c r="I41" t="n">
-        <v>200.6221442660201</v>
+        <v>184.3982279984137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>107.9174528904707</v>
       </c>
       <c r="S41" t="n">
-        <v>193.555132774547</v>
+        <v>209.7790490421534</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6003894970582</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="U41" t="n">
         <v>220.6003894970582</v>
@@ -30539,16 +30539,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.7341774550896</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>55.19922523536187</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>130.5897714670058</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -30636,7 +30636,7 @@
         <v>159.4796682756625</v>
       </c>
       <c r="I43" t="n">
-        <v>121.273419214054</v>
+        <v>146.4714634133492</v>
       </c>
       <c r="J43" t="n">
         <v>71.70714980148178</v>
@@ -30672,7 +30672,7 @@
         <v>220.6003894970582</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6003894970582</v>
+        <v>195.402345297763</v>
       </c>
       <c r="V43" t="n">
         <v>220.6003894970582</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>16.22391626760657</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>107.9174528904707</v>
       </c>
       <c r="S44" t="n">
-        <v>209.7790490421534</v>
+        <v>193.555132774547</v>
       </c>
       <c r="T44" t="n">
         <v>220.6003894970583</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30782,19 +30782,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.6710676475892</v>
       </c>
       <c r="I45" t="n">
-        <v>43.80160363647693</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S45" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.6003894970583</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>220.6003894970583</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>22.26513993947987</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30906,7 +30906,7 @@
         <v>218.1345113002278</v>
       </c>
       <c r="T46" t="n">
-        <v>32.90657683521553</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="U46" t="n">
         <v>220.6003894970583</v>
@@ -30918,7 +30918,7 @@
         <v>220.6003894970583</v>
       </c>
       <c r="X46" t="n">
-        <v>220.6003894970583</v>
+        <v>32.90657683521545</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H11" t="n">
         <v>5.532328395452192</v>
@@ -31759,40 +31759,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J11" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K11" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L11" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M11" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N11" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O11" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P11" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R11" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S11" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T11" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I12" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J12" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K12" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L12" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M12" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N12" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O12" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P12" t="n">
         <v>55.19257836597549</v>
@@ -31862,10 +31862,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R12" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S12" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T12" t="n">
         <v>1.16500481230951</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H13" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I13" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J13" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K13" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L13" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M13" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N13" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O13" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P13" t="n">
         <v>29.30693994602769</v>
@@ -31944,13 +31944,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S13" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T13" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U13" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H14" t="n">
         <v>5.532328395452192</v>
@@ -31996,40 +31996,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J14" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K14" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L14" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M14" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N14" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O14" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P14" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R14" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S14" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T14" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I15" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J15" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K15" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L15" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M15" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N15" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O15" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P15" t="n">
         <v>55.19257836597549</v>
@@ -32099,10 +32099,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R15" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S15" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T15" t="n">
         <v>1.16500481230951</v>
@@ -32145,31 +32145,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H16" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I16" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J16" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K16" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L16" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M16" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N16" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O16" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P16" t="n">
         <v>29.30693994602769</v>
@@ -32181,13 +32181,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S16" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T16" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U16" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H17" t="n">
         <v>5.532328395452192</v>
@@ -32233,40 +32233,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J17" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K17" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L17" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M17" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N17" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O17" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P17" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R17" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S17" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T17" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I18" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J18" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K18" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L18" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M18" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N18" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O18" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P18" t="n">
         <v>55.19257836597549</v>
@@ -32336,10 +32336,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R18" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S18" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T18" t="n">
         <v>1.16500481230951</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H19" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I19" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J19" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K19" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L19" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M19" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N19" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O19" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P19" t="n">
         <v>29.30693994602769</v>
@@ -32418,13 +32418,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S19" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T19" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U19" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H20" t="n">
         <v>5.532328395452192</v>
@@ -32470,40 +32470,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J20" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K20" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L20" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M20" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N20" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O20" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P20" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R20" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S20" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T20" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I21" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J21" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K21" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L21" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M21" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N21" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O21" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P21" t="n">
         <v>55.19257836597549</v>
@@ -32573,10 +32573,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R21" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S21" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T21" t="n">
         <v>1.16500481230951</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H22" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I22" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J22" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K22" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L22" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M22" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N22" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O22" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P22" t="n">
         <v>29.30693994602769</v>
@@ -32655,13 +32655,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S22" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T22" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U22" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H23" t="n">
         <v>5.532328395452192</v>
@@ -32707,40 +32707,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J23" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K23" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L23" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M23" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N23" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O23" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P23" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R23" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S23" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T23" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I24" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J24" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K24" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L24" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M24" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N24" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O24" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P24" t="n">
         <v>55.19257836597549</v>
@@ -32810,10 +32810,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R24" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S24" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T24" t="n">
         <v>1.16500481230951</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H25" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I25" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J25" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K25" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L25" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M25" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N25" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O25" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P25" t="n">
         <v>29.30693994602769</v>
@@ -32892,13 +32892,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S25" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T25" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U25" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H26" t="n">
         <v>5.532328395452192</v>
@@ -32944,40 +32944,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J26" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K26" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L26" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M26" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N26" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O26" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P26" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R26" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S26" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T26" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I27" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J27" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K27" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L27" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M27" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N27" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O27" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P27" t="n">
         <v>55.19257836597549</v>
@@ -33047,10 +33047,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R27" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S27" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T27" t="n">
         <v>1.16500481230951</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H28" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I28" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J28" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K28" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L28" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M28" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N28" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O28" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P28" t="n">
         <v>29.30693994602769</v>
@@ -33129,13 +33129,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S28" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T28" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U28" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H29" t="n">
         <v>5.532328395452192</v>
@@ -33181,40 +33181,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J29" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K29" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L29" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M29" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N29" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O29" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P29" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R29" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S29" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T29" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I30" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J30" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K30" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L30" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M30" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N30" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O30" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P30" t="n">
         <v>55.19257836597549</v>
@@ -33284,10 +33284,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R30" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S30" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T30" t="n">
         <v>1.16500481230951</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H31" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I31" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J31" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K31" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L31" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M31" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N31" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O31" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P31" t="n">
         <v>29.30693994602769</v>
@@ -33366,13 +33366,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S31" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T31" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U31" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H32" t="n">
         <v>5.532328395452192</v>
@@ -33418,40 +33418,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J32" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K32" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L32" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M32" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N32" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O32" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P32" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R32" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S32" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T32" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I33" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J33" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K33" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L33" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M33" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N33" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O33" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P33" t="n">
         <v>55.19257836597549</v>
@@ -33521,10 +33521,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R33" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S33" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T33" t="n">
         <v>1.16500481230951</v>
@@ -33567,31 +33567,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H34" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I34" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J34" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K34" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L34" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M34" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N34" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O34" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P34" t="n">
         <v>29.30693994602769</v>
@@ -33603,13 +33603,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S34" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T34" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U34" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H35" t="n">
         <v>5.532328395452192</v>
@@ -33655,40 +33655,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J35" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K35" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L35" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M35" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N35" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O35" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P35" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R35" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S35" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T35" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I36" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J36" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K36" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L36" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M36" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N36" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O36" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P36" t="n">
         <v>55.19257836597549</v>
@@ -33758,10 +33758,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R36" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S36" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T36" t="n">
         <v>1.16500481230951</v>
@@ -33804,31 +33804,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H37" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I37" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J37" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K37" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L37" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M37" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N37" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O37" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P37" t="n">
         <v>29.30693994602769</v>
@@ -33840,13 +33840,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S37" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T37" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U37" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H38" t="n">
         <v>5.532328395452192</v>
@@ -33892,40 +33892,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J38" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K38" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L38" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M38" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N38" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O38" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P38" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R38" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S38" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T38" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I39" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J39" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K39" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L39" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M39" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N39" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O39" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P39" t="n">
         <v>55.19257836597549</v>
@@ -33995,10 +33995,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R39" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S39" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T39" t="n">
         <v>1.16500481230951</v>
@@ -34041,31 +34041,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H40" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I40" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J40" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K40" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L40" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M40" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N40" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O40" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P40" t="n">
         <v>29.30693994602769</v>
@@ -34077,13 +34077,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S40" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T40" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U40" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H41" t="n">
         <v>5.532328395452192</v>
@@ -34129,40 +34129,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J41" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K41" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L41" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M41" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N41" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O41" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P41" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R41" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S41" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T41" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34205,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I42" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J42" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K42" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L42" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M42" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N42" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O42" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P42" t="n">
         <v>55.19257836597549</v>
@@ -34232,10 +34232,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R42" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S42" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T42" t="n">
         <v>1.16500481230951</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H43" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I43" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J43" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K43" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L43" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M43" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N43" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O43" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P43" t="n">
         <v>29.30693994602769</v>
@@ -34314,13 +34314,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S43" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T43" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U43" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242345</v>
       </c>
       <c r="H44" t="n">
         <v>5.532328395452192</v>
@@ -34366,40 +34366,40 @@
         <v>20.82607986971032</v>
       </c>
       <c r="J44" t="n">
-        <v>45.8488423926289</v>
+        <v>45.84884239262891</v>
       </c>
       <c r="K44" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024677</v>
       </c>
       <c r="L44" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631246</v>
       </c>
       <c r="M44" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129944</v>
       </c>
       <c r="N44" t="n">
-        <v>96.38932614881227</v>
+        <v>96.3893261488123</v>
       </c>
       <c r="O44" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283131</v>
       </c>
       <c r="P44" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923301</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.33557700616508</v>
+        <v>58.3355770061651</v>
       </c>
       <c r="R44" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040635</v>
       </c>
       <c r="S44" t="n">
-        <v>12.30981894899225</v>
+        <v>12.30981894899226</v>
       </c>
       <c r="T44" t="n">
-        <v>2.364727699362087</v>
+        <v>2.364727699362088</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393875</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>2.791447874543572</v>
       </c>
       <c r="I45" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372861</v>
       </c>
       <c r="J45" t="n">
-        <v>27.307256433035</v>
+        <v>27.30725643303501</v>
       </c>
       <c r="K45" t="n">
-        <v>46.6724506798686</v>
+        <v>46.67245067986861</v>
       </c>
       <c r="L45" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723866</v>
       </c>
       <c r="M45" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302548</v>
       </c>
       <c r="N45" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020857</v>
       </c>
       <c r="O45" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125574</v>
       </c>
       <c r="P45" t="n">
         <v>55.19257836597549</v>
@@ -34469,10 +34469,10 @@
         <v>36.89477699396735</v>
       </c>
       <c r="R45" t="n">
-        <v>17.94538424706576</v>
+        <v>17.94538424706577</v>
       </c>
       <c r="S45" t="n">
-        <v>5.368656561622169</v>
+        <v>5.36865656162217</v>
       </c>
       <c r="T45" t="n">
         <v>1.16500481230951</v>
@@ -34515,31 +34515,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210349</v>
       </c>
       <c r="H46" t="n">
         <v>2.154403733254293</v>
       </c>
       <c r="I46" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054395</v>
       </c>
       <c r="J46" t="n">
         <v>17.13169512629716</v>
       </c>
       <c r="K46" t="n">
-        <v>28.1526377412984</v>
+        <v>28.15263774129841</v>
       </c>
       <c r="L46" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492914</v>
       </c>
       <c r="M46" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272367</v>
       </c>
       <c r="N46" t="n">
         <v>37.08085689352711</v>
       </c>
       <c r="O46" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177683</v>
       </c>
       <c r="P46" t="n">
         <v>29.30693994602769</v>
@@ -34551,13 +34551,13 @@
         <v>10.89537920723489</v>
       </c>
       <c r="S46" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194761</v>
       </c>
       <c r="T46" t="n">
         <v>1.035347397371694</v>
       </c>
       <c r="U46" t="n">
-        <v>0.013217200817511</v>
+        <v>0.01321720081751101</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>191.2391539654021</v>
       </c>
       <c r="L11" t="n">
-        <v>255.9968099866635</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M11" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>228.9578504435625</v>
       </c>
       <c r="O11" t="n">
-        <v>262.7041397799419</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.77524718706016</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L12" t="n">
-        <v>313.3403085074588</v>
+        <v>67.48711542709339</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N12" t="n">
-        <v>315.2133317213309</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="P12" t="n">
         <v>255.7688105225381</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L13" t="n">
         <v>217.905165333798</v>
@@ -35577,16 +35577,16 @@
         <v>232.5997916894918</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27787655816499</v>
+        <v>194.1293079677088</v>
       </c>
       <c r="O13" t="n">
-        <v>213.2367324916075</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P13" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.38133765537807</v>
+        <v>84.94825765569372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>45.18956525806649</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>191.2391539654021</v>
       </c>
       <c r="L14" t="n">
-        <v>119.6835734214661</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M14" t="n">
-        <v>337.7609789072543</v>
+        <v>38.85741870515314</v>
       </c>
       <c r="N14" t="n">
         <v>327.5523905305996</v>
@@ -35662,10 +35662,10 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P14" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.3951196648777</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.77524718706016</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>187.3208941729504</v>
       </c>
       <c r="L15" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M15" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N15" t="n">
-        <v>128.8085439475518</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>338.9703834416861</v>
+        <v>127.8924375483808</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.71120160837786</v>
+        <v>72.71120160837778</v>
       </c>
       <c r="K16" t="n">
-        <v>13.37822802346505</v>
+        <v>43.51845782463219</v>
       </c>
       <c r="L16" t="n">
-        <v>73.48681392393841</v>
+        <v>217.905165333798</v>
       </c>
       <c r="M16" t="n">
-        <v>232.5997916894919</v>
+        <v>88.18144027963223</v>
       </c>
       <c r="N16" t="n">
-        <v>235.6962279680247</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O16" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P16" t="n">
-        <v>65.56919164587717</v>
+        <v>179.8473132545711</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.94825765569375</v>
+        <v>84.94825765569367</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>45.18956525806649</v>
       </c>
       <c r="K17" t="n">
         <v>191.2391539654021</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M17" t="n">
-        <v>337.7609789072543</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>301.18637524473</v>
+        <v>304.0146895708749</v>
       </c>
       <c r="O17" t="n">
         <v>262.7041397799419</v>
       </c>
       <c r="P17" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.77524718706016</v>
       </c>
       <c r="K18" t="n">
         <v>187.3208941729504</v>
       </c>
       <c r="L18" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M18" t="n">
-        <v>163.5837911346121</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="O18" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>9.915617442172536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L19" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M19" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O19" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P19" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>45.18956525806649</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>191.2391539654021</v>
       </c>
       <c r="L20" t="n">
-        <v>164.8731386795328</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M20" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N20" t="n">
-        <v>327.5523905305996</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>262.7041397799419</v>
+        <v>228.9578504435627</v>
       </c>
       <c r="P20" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>34.77524718706016</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M21" t="n">
-        <v>338.9703834416861</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>338.9703834416861</v>
+        <v>93.11719036132084</v>
       </c>
       <c r="O21" t="n">
-        <v>338.9703834416861</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="P21" t="n">
-        <v>171.6064366808955</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q21" t="n">
         <v>118.8929265053794</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L22" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M22" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O22" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P22" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>45.18956525806649</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>191.2391539654021</v>
       </c>
       <c r="L23" t="n">
-        <v>164.8731386795339</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M23" t="n">
-        <v>337.7609789072543</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>327.5523905305996</v>
@@ -36373,10 +36373,10 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P23" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.3951196648777</v>
+        <v>38.85741870515291</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.77524718706016</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>60.3606275979648</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L24" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M24" t="n">
-        <v>338.9703834416864</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>338.9703834416862</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9703834416864</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>255.7688105225381</v>
+        <v>44.69086462923273</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L25" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M25" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O25" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P25" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.5540552708934</v>
       </c>
       <c r="K26" t="n">
-        <v>332.6036439782291</v>
+        <v>332.603643978229</v>
       </c>
       <c r="L26" t="n">
         <v>431.1075893358702</v>
@@ -36604,10 +36604,10 @@
         <v>479.1254689200813</v>
       </c>
       <c r="N26" t="n">
-        <v>468.9168805434266</v>
+        <v>468.9168805434265</v>
       </c>
       <c r="O26" t="n">
-        <v>404.0686297927689</v>
+        <v>404.0686297927688</v>
       </c>
       <c r="P26" t="n">
         <v>328.264483149014</v>
@@ -36616,7 +36616,7 @@
         <v>203.7596096777046</v>
       </c>
       <c r="R26" t="n">
-        <v>33.4470371223562</v>
+        <v>33.44703712235618</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>187.3208941729504</v>
       </c>
       <c r="L27" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M27" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N27" t="n">
         <v>445.6305010862542</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.65734021134516</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.742718036292</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L28" t="n">
-        <v>214.8513039367654</v>
+        <v>93.98921396591457</v>
       </c>
       <c r="M28" t="n">
-        <v>229.5459302924592</v>
+        <v>229.5459302924591</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27787655816499</v>
+        <v>232.6423665709919</v>
       </c>
       <c r="O28" t="n">
-        <v>68.81838108174787</v>
+        <v>210.1828710945748</v>
       </c>
       <c r="P28" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.73945608929171</v>
+        <v>81.89439625866102</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>431.1075893358702</v>
       </c>
       <c r="M29" t="n">
-        <v>479.1254689200812</v>
+        <v>479.1254689200817</v>
       </c>
       <c r="N29" t="n">
         <v>468.9168805434265</v>
@@ -36853,7 +36853,7 @@
         <v>203.7596096777046</v>
       </c>
       <c r="R29" t="n">
-        <v>33.44703712235619</v>
+        <v>33.44703712235618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>187.3208941729504</v>
       </c>
       <c r="L30" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M30" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N30" t="n">
         <v>445.6305010862542</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.65734021134513</v>
       </c>
       <c r="K31" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L31" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M31" t="n">
-        <v>229.5459302924592</v>
+        <v>180.3909901230902</v>
       </c>
       <c r="N31" t="n">
-        <v>193.6746728588016</v>
+        <v>232.6423665709919</v>
       </c>
       <c r="O31" t="n">
-        <v>210.1828710945748</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7934518575385</v>
+        <v>176.7934518575384</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>81.89439625866102</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.5540552708934</v>
       </c>
       <c r="K32" t="n">
-        <v>332.603643978229</v>
+        <v>332.6036439782291</v>
       </c>
       <c r="L32" t="n">
         <v>431.1075893358702</v>
@@ -37078,19 +37078,19 @@
         <v>479.1254689200813</v>
       </c>
       <c r="N32" t="n">
-        <v>468.9168805434266</v>
+        <v>468.9168805434265</v>
       </c>
       <c r="O32" t="n">
         <v>404.0686297927689</v>
       </c>
       <c r="P32" t="n">
-        <v>328.264483149014</v>
+        <v>328.2644831490141</v>
       </c>
       <c r="Q32" t="n">
         <v>203.7596096777046</v>
       </c>
       <c r="R32" t="n">
-        <v>33.4470371223562</v>
+        <v>33.44703712235621</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>187.3208941729504</v>
       </c>
       <c r="L33" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M33" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N33" t="n">
         <v>445.6305010862542</v>
@@ -37227,25 +37227,25 @@
         <v>69.65734021134516</v>
       </c>
       <c r="K34" t="n">
-        <v>13.37822802346505</v>
+        <v>105.5877778669224</v>
       </c>
       <c r="L34" t="n">
-        <v>214.8513039367654</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M34" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N34" t="n">
-        <v>232.6423665709919</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O34" t="n">
         <v>210.1828710945748</v>
       </c>
       <c r="P34" t="n">
-        <v>68.16841793400312</v>
+        <v>176.7934518575385</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>81.89439625866105</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M35" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N35" t="n">
         <v>327.5523905305996</v>
@@ -37321,10 +37321,10 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P35" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L36" t="n">
-        <v>313.3403085074588</v>
+        <v>292.2981855612331</v>
       </c>
       <c r="M36" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N36" t="n">
         <v>430.216733714214</v>
       </c>
       <c r="O36" t="n">
-        <v>339.3537175157211</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>201.586790738921</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L37" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M37" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O37" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P37" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.18956525806635</v>
+        <v>45.18956525806649</v>
       </c>
       <c r="K38" t="n">
         <v>191.2391539654021</v>
@@ -37549,7 +37549,7 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M38" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N38" t="n">
         <v>327.5523905305996</v>
@@ -37558,10 +37558,10 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P38" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>34.77524718706016</v>
       </c>
       <c r="K39" t="n">
-        <v>187.3208941729504</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M39" t="n">
-        <v>23.81580244005058</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N39" t="n">
         <v>430.216733714214</v>
       </c>
       <c r="O39" t="n">
-        <v>339.3537175157211</v>
+        <v>131.5035240396645</v>
       </c>
       <c r="P39" t="n">
         <v>255.7688105225381</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L40" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M40" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O40" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P40" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16.22391626760647</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>45.18956525806649</v>
@@ -37786,7 +37786,7 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M41" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N41" t="n">
         <v>327.5523905305996</v>
@@ -37795,16 +37795,16 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P41" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>16.22391626760643</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>187.3208941729504</v>
       </c>
       <c r="L42" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M42" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N42" t="n">
-        <v>434.3141003226146</v>
+        <v>51.26956233281376</v>
       </c>
       <c r="O42" t="n">
-        <v>330.9709165538377</v>
+        <v>339.3537175157211</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L43" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M43" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O43" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P43" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,25 +38023,25 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M44" t="n">
-        <v>337.7609789072543</v>
+        <v>337.7609789072544</v>
       </c>
       <c r="N44" t="n">
         <v>327.5523905305996</v>
       </c>
       <c r="O44" t="n">
-        <v>262.7041397799419</v>
+        <v>278.9280560475485</v>
       </c>
       <c r="P44" t="n">
-        <v>186.8999931361871</v>
+        <v>186.8999931361872</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487771</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.22391626760643</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.77524718706016</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.3208941729504</v>
+        <v>178.4053208859307</v>
       </c>
       <c r="L45" t="n">
-        <v>313.3403085074588</v>
+        <v>313.3403085074589</v>
       </c>
       <c r="M45" t="n">
-        <v>418.9868900890575</v>
+        <v>418.9868900890576</v>
       </c>
       <c r="N45" t="n">
         <v>434.3141003226146</v>
       </c>
       <c r="O45" t="n">
-        <v>330.9709165538377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>13.37822802346505</v>
+        <v>13.37822802346506</v>
       </c>
       <c r="L46" t="n">
-        <v>73.48681392393841</v>
+        <v>73.48681392393843</v>
       </c>
       <c r="M46" t="n">
         <v>88.18144027963223</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27787655816499</v>
+        <v>91.277876558165</v>
       </c>
       <c r="O46" t="n">
-        <v>68.81838108174787</v>
+        <v>68.81838108174789</v>
       </c>
       <c r="P46" t="n">
-        <v>35.42896184471152</v>
+        <v>35.42896184471154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
